--- a/Mnemonics.xlsx
+++ b/Mnemonics.xlsx
@@ -13,9 +13,10 @@
     <sheet name="People" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Actions" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Objects" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Verbs (Candidates)" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Objects (Candidates)" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Notes" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="People (Candidates)" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Action (Candidates)" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Objects (Candidates)" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Notes" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="570">
   <si>
     <t xml:space="preserve">Object</t>
   </si>
@@ -984,6 +985,78 @@
   </si>
   <si>
     <t xml:space="preserve">zebra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subject (Candidates)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam, Abraham, Aaron, Abel, Appolyon, Azriel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baal, Beelzebub, Bathsheba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cain, Cyrus,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dagon, Daniel, Darius, Deborah, David</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elijah, Enoch, Esther, Esau, Eve, Ezra, Ezekiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felix, Festus (Both Roman dudes in charge of Judea. :/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gideon, Goliath,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isaac, Iscariot,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesus, Judas, Jacob, James, Jehovah, Joseph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K (Wikipedia lists a lot of names, none of which I recognize)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leah, Luke, Lucifer, Lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magdelene, Mathew, Mary, Michael, Moses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noah, Nimrod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obadiah (Prophet and descendent of Esau; everyone else is more obsure than this), Omar (obsure, but makes me think of Captain Omar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul, Peter, Pharoah, Pharisees, Philistines, (Maybe one of these can work for our F?), Pilate,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queen of Sheba (Aparently the only names)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruth, Rachel,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seth, Samuel, Saul, Solomon, Samson, Simon, Sarah, Silas,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas, Timothy,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzziah (King of Israel), Uriah (Husband of Bathsheba), Uriel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W (literally none)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X None in the Bible, but we might put in Xerxes and ignore the other persian kings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yahweh, Yubal, Yeshua,</t>
   </si>
   <si>
     <t xml:space="preserve">Attack</t>
@@ -1674,7 +1747,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1717,19 +1790,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -1788,7 +1848,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1813,7 +1873,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1821,23 +1881,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2942,7 +2990,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2956,6 +3004,9 @@
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7560,10 +7611,10 @@
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -7577,10 +7628,10 @@
       <c r="A2" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="2" t="s">
         <v>265</v>
       </c>
     </row>
@@ -7588,10 +7639,10 @@
       <c r="A3" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="2" t="s">
         <v>267</v>
       </c>
     </row>
@@ -7599,10 +7650,10 @@
       <c r="A4" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -7610,7 +7661,7 @@
       <c r="A5" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="2" t="s">
         <v>270</v>
       </c>
     </row>
@@ -7618,7 +7669,7 @@
       <c r="A6" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="2" t="s">
         <v>271</v>
       </c>
     </row>
@@ -7634,7 +7685,7 @@
       <c r="A8" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="2" t="s">
         <v>273</v>
       </c>
     </row>
@@ -7642,7 +7693,7 @@
       <c r="A9" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="2" t="s">
         <v>274</v>
       </c>
     </row>
@@ -7650,7 +7701,7 @@
       <c r="A10" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="2" t="s">
         <v>275</v>
       </c>
     </row>
@@ -7658,7 +7709,7 @@
       <c r="A11" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="2" t="s">
         <v>276</v>
       </c>
     </row>
@@ -7666,7 +7717,7 @@
       <c r="A12" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="2" t="s">
         <v>277</v>
       </c>
     </row>
@@ -7674,7 +7725,7 @@
       <c r="A13" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="2" t="s">
         <v>278</v>
       </c>
     </row>
@@ -7682,7 +7733,7 @@
       <c r="A14" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="2" t="s">
         <v>279</v>
       </c>
     </row>
@@ -7690,7 +7741,7 @@
       <c r="A15" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="2" t="s">
         <v>280</v>
       </c>
     </row>
@@ -7698,7 +7749,7 @@
       <c r="A16" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="2" t="s">
         <v>281</v>
       </c>
     </row>
@@ -7706,7 +7757,7 @@
       <c r="A17" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="2" t="s">
         <v>282</v>
       </c>
     </row>
@@ -7714,7 +7765,7 @@
       <c r="A18" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="2" t="s">
         <v>283</v>
       </c>
     </row>
@@ -7722,7 +7773,7 @@
       <c r="A19" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="2" t="s">
         <v>284</v>
       </c>
     </row>
@@ -7730,7 +7781,7 @@
       <c r="A20" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="2" t="s">
         <v>285</v>
       </c>
     </row>
@@ -7738,7 +7789,7 @@
       <c r="A21" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="2" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7746,7 +7797,7 @@
       <c r="A22" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="2" t="s">
         <v>287</v>
       </c>
     </row>
@@ -7815,10 +7866,10 @@
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -7829,7 +7880,7 @@
       <c r="A2" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>293</v>
       </c>
     </row>
@@ -7837,7 +7888,7 @@
       <c r="A3" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>294</v>
       </c>
     </row>
@@ -7845,7 +7896,7 @@
       <c r="A4" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>295</v>
       </c>
     </row>
@@ -7853,7 +7904,7 @@
       <c r="A5" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>296</v>
       </c>
     </row>
@@ -7861,7 +7912,7 @@
       <c r="A6" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>297</v>
       </c>
     </row>
@@ -7869,7 +7920,7 @@
       <c r="A7" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>298</v>
       </c>
     </row>
@@ -7877,7 +7928,7 @@
       <c r="A8" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>299</v>
       </c>
     </row>
@@ -7885,7 +7936,7 @@
       <c r="A9" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>300</v>
       </c>
     </row>
@@ -7893,7 +7944,7 @@
       <c r="A10" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>301</v>
       </c>
     </row>
@@ -7901,7 +7952,7 @@
       <c r="A11" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>302</v>
       </c>
     </row>
@@ -7909,7 +7960,7 @@
       <c r="A12" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>303</v>
       </c>
     </row>
@@ -7917,7 +7968,7 @@
       <c r="A13" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>304</v>
       </c>
     </row>
@@ -7925,7 +7976,7 @@
       <c r="A14" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>305</v>
       </c>
     </row>
@@ -7933,7 +7984,7 @@
       <c r="A15" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>306</v>
       </c>
     </row>
@@ -7941,7 +7992,7 @@
       <c r="A16" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>307</v>
       </c>
     </row>
@@ -7949,7 +8000,7 @@
       <c r="A17" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>308</v>
       </c>
     </row>
@@ -7957,7 +8008,7 @@
       <c r="A18" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>309</v>
       </c>
     </row>
@@ -7965,7 +8016,7 @@
       <c r="A19" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>310</v>
       </c>
     </row>
@@ -7973,7 +8024,7 @@
       <c r="A20" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>311</v>
       </c>
     </row>
@@ -7981,7 +8032,7 @@
       <c r="A21" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7989,7 +8040,7 @@
       <c r="A22" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>313</v>
       </c>
     </row>
@@ -7997,7 +8048,7 @@
       <c r="A23" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>314</v>
       </c>
     </row>
@@ -8005,7 +8056,7 @@
       <c r="A24" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>315</v>
       </c>
     </row>
@@ -8013,7 +8064,7 @@
       <c r="A25" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>316</v>
       </c>
     </row>
@@ -8021,7 +8072,7 @@
       <c r="A26" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>317</v>
       </c>
     </row>
@@ -8029,7 +8080,7 @@
       <c r="A27" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>318</v>
       </c>
     </row>
@@ -8049,7 +8100,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -8058,687 +8109,138 @@
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A1" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>364</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>373</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>383</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>391</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>400</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>406</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>409</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>414</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>421</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>427</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>433</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>447</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>450</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>461</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>476</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>484</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>486</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>488</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>290</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>291</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>493</v>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -8757,7 +8259,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -8767,10 +8269,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>494</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>495</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8778,13 +8280,40 @@
         <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>496</v>
+        <v>343</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>293</v>
+        <v>344</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8792,42 +8321,156 @@
         <v>189</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>294</v>
+        <v>355</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>295</v>
+      <c r="B4" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>296</v>
+      <c r="B5" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>297</v>
+      <c r="B6" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>298</v>
+      <c r="B7" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8835,21 +8478,63 @@
         <v>204</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>299</v>
+        <v>398</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>300</v>
+      <c r="B9" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8857,10 +8542,40 @@
         <v>210</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>301</v>
+        <v>416</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8868,18 +8583,30 @@
         <v>213</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>302</v>
+        <v>427</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>303</v>
+      <c r="B12" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8887,16 +8614,19 @@
         <v>219</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>503</v>
+        <v>434</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>504</v>
+        <v>435</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>304</v>
+        <v>436</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8904,13 +8634,25 @@
         <v>222</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>506</v>
+        <v>439</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>305</v>
+        <v>440</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8918,10 +8660,22 @@
         <v>225</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>306</v>
+        <v>446</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8929,22 +8683,22 @@
         <v>228</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>509</v>
+        <v>452</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>510</v>
+        <v>453</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>307</v>
+        <v>454</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>455</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>513</v>
+        <v>456</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8952,31 +8706,46 @@
         <v>231</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>514</v>
+        <v>458</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>515</v>
+        <v>459</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>516</v>
+        <v>460</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>517</v>
+        <v>461</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>518</v>
+        <v>462</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>519</v>
+        <v>463</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>520</v>
+        <v>464</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>308</v>
+        <v>465</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8984,7 +8753,13 @@
         <v>234</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>309</v>
+        <v>472</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8992,10 +8767,37 @@
         <v>237</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>310</v>
+        <v>475</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9003,40 +8805,49 @@
         <v>239</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>523</v>
+        <v>486</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>526</v>
+        <v>489</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>311</v>
+        <v>490</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>491</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>528</v>
+        <v>492</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>529</v>
+        <v>493</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>531</v>
+        <v>494</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>495</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>532</v>
+        <v>496</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>533</v>
+        <v>497</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9044,13 +8855,31 @@
         <v>242</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>534</v>
+        <v>286</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>312</v>
+        <v>501</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9058,13 +8887,10 @@
         <v>245</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>313</v>
+        <v>509</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9072,10 +8898,13 @@
         <v>248</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>314</v>
+        <v>288</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9083,10 +8912,16 @@
         <v>251</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>315</v>
+        <v>513</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9094,26 +8929,26 @@
         <v>254</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>316</v>
+        <v>516</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>317</v>
+      <c r="B26" s="8" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>318</v>
+      <c r="B27" s="8" t="s">
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -9132,6 +8967,381 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -9142,27 +9352,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/Mnemonics.xlsx
+++ b/Mnemonics.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="572">
   <si>
     <t xml:space="preserve">Object</t>
   </si>
@@ -87,7 +87,7 @@
     <t xml:space="preserve">For "piece of eight"</t>
   </si>
   <si>
-    <t xml:space="preserve">covered in metal helments</t>
+    <t xml:space="preserve">covered in metal helmets</t>
   </si>
   <si>
     <t xml:space="preserve">Because "ninth" sounds like "knight"</t>
@@ -132,7 +132,7 @@
     <t xml:space="preserve">are made of car tires</t>
   </si>
   <si>
-    <t xml:space="preserve">Because sixteen is when people can get their driver's lisence.</t>
+    <t xml:space="preserve">Because sixteen is when people can get their driver's license.</t>
   </si>
   <si>
     <t xml:space="preserve">are made of disco balls</t>
@@ -141,25 +141,25 @@
     <t xml:space="preserve">For ABBA's "Dancing Queen" ("Only seventeen, what a dream...")</t>
   </si>
   <si>
-    <t xml:space="preserve">are covered in election ballots and smell like gun smoke</t>
+    <t xml:space="preserve">are covered in election ballots and smell like gunsmoke</t>
   </si>
   <si>
     <t xml:space="preserve">Because 18 is when you can vote and buy a gun</t>
   </si>
   <si>
-    <t xml:space="preserve">Are white, painted with chinese caligraphy in thick, black brush strokes</t>
+    <t xml:space="preserve">Are white, painted with chinese calligraphy in thick, black brush strokes</t>
   </si>
   <si>
     <t xml:space="preserve">I read in some book that "19"  could be written as "repeated sufferings" in Japanese. This is likely untrue and I can't even find it right now, but I still remember it!</t>
   </si>
   <si>
-    <t xml:space="preserve">Are covered in beautiful kimonos with long sleaves</t>
+    <t xml:space="preserve">Are covered in beautiful kimonos with long sleeves</t>
   </si>
   <si>
     <t xml:space="preserve">20 is when you become an adult in Japan, and women often wear long sleeve "furisode" kimonos to celebrate it.</t>
   </si>
   <si>
-    <t xml:space="preserve">Are made of enrmouse oversized playing cards</t>
+    <t xml:space="preserve">Are made of enormous oversized playing cards</t>
   </si>
   <si>
     <t xml:space="preserve">For "21 Blackjack"</t>
@@ -186,7 +186,7 @@
     <t xml:space="preserve">Covered in cats, eats with  multiple knives in their back. They seem fine, though.</t>
   </si>
   <si>
-    <t xml:space="preserve">"Twent-five" sounds like "plenty lives," like a cat.</t>
+    <t xml:space="preserve">"Twenty-five" sounds like "plenty lives," like a cat.</t>
   </si>
   <si>
     <t xml:space="preserve">is actually a giant fridge door, covered in magnetic letter toys</t>
@@ -198,7 +198,7 @@
     <t xml:space="preserve">is covered in electrical guitars</t>
   </si>
   <si>
-    <t xml:space="preserve">In honor of the "27 club:" a bunch of famous musicians that died at 27, including Jimi Hendrix and Curt Cobain.</t>
+    <t xml:space="preserve">In honor of the "27 club:" a bunch of famous musicians that died at 27, including Jimi Hendrix and Kurt Cobain.</t>
   </si>
   <si>
     <t xml:space="preserve">Has a gigantic mural of the last supper</t>
@@ -213,7 +213,7 @@
     <t xml:space="preserve">"29" sounds like "plenty died"</t>
   </si>
   <si>
-    <t xml:space="preserve">is made of filthy dirt, full of earth worms</t>
+    <t xml:space="preserve">is made of filthy dirt, full of earthworms</t>
   </si>
   <si>
     <t xml:space="preserve">30 sounds like "dirty"</t>
@@ -225,13 +225,13 @@
     <t xml:space="preserve">31st sounds like "dirty nursed"</t>
   </si>
   <si>
-    <t xml:space="preserve">covered in lengerie</t>
+    <t xml:space="preserve">covered in lingerie</t>
   </si>
   <si>
     <t xml:space="preserve">originally meant to be "daisy dukes", which I thought sounded like "32", this seemed a bit more memorable</t>
   </si>
   <si>
-    <t xml:space="preserve">is made of an enormous pair of 3-D glasses</t>
+    <t xml:space="preserve">is made of an enormous pair of 3D glasses</t>
   </si>
   <si>
     <t xml:space="preserve">33 sounds like 3-D</t>
@@ -246,7 +246,7 @@
     <t xml:space="preserve">is covered in chains and shackles holding black slaves</t>
   </si>
   <si>
-    <t xml:space="preserve">for 3/5ths compomise</t>
+    <t xml:space="preserve">for 3/5ths compromise</t>
   </si>
   <si>
     <t xml:space="preserve">icy glass, behind which contain various alien creatures, each the last of their kind</t>
@@ -282,13 +282,13 @@
     <t xml:space="preserve">is made of writhing, growing, deformed looking flesh. You can see a face and a stumpy looking hand rising out of it, mixed with random bits of machinery</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference to the fate of Testuo Shima, who was assigned the code number 41 in Akira.</t>
+    <t xml:space="preserve">Reference to the fate of Tetsuo Shima, who was assigned the code number 41 in Akira.</t>
   </si>
   <si>
     <t xml:space="preserve">is made of towels, stitched together. Those things sure are handy!</t>
   </si>
   <si>
-    <t xml:space="preserve">A reference to the hitch hiker's guide to the galaxy, where 42 is the most </t>
+    <t xml:space="preserve">A reference to the hitchhiker's guide to the galaxy, where 42 is the most </t>
   </si>
   <si>
     <t xml:space="preserve">is made of thick logs, of trees, tightly packed together</t>
@@ -297,7 +297,7 @@
     <t xml:space="preserve">43 sounds like 40 trees</t>
   </si>
   <si>
-    <t xml:space="preserve">is made of a large 44 dollar bill, with a portrait of Barrack Obama in the center</t>
+    <t xml:space="preserve">is made of a large 44 dollar bill, with a portrait of Barack Obama in the center</t>
   </si>
   <si>
     <t xml:space="preserve">For the 44th president</t>
@@ -315,7 +315,7 @@
     <t xml:space="preserve">for the 46 Ronin</t>
   </si>
   <si>
-    <t xml:space="preserve">Has large glass orbs on each side, each mostly full of blue and red liquid, with a bunch or mideval gear and magical ritual items littering the place in between.</t>
+    <t xml:space="preserve">Has large glass orbs on each side, each mostly full of blue and red liquid, with a bunch or medieval gear and magical ritual items littering the place in between.</t>
   </si>
   <si>
     <t xml:space="preserve">Supposed to look like the screen of "Diablo," "for Evan" (47) who showed me the game when I was a kid.</t>
@@ -342,7 +342,7 @@
     <t xml:space="preserve">is covered with flowers</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference to Statler Brother's Song, "Flowers on the Wall," "Playing solitaire 'til dawn, with a deck of 51; Smokin' cigarettes and watchin' Captain Kangaroo; Now don't tell me, I've nothin' to do"</t>
+    <t xml:space="preserve">Reference to Statler Brothers Song, "Flowers on the Wall," "Playing solitaire 'till dawn, with a deck of 51; Smokin' cigarettes and watchin' Captain Kangaroo; Now don't tell me, I've nothing' to do"</t>
   </si>
   <si>
     <t xml:space="preserve">is littered with comic books</t>
@@ -378,7 +378,7 @@
     <t xml:space="preserve">Numbers</t>
   </si>
   <si>
-    <t xml:space="preserve">abbacus</t>
+    <t xml:space="preserve">abacus</t>
   </si>
   <si>
     <t xml:space="preserve">Deuteronomy</t>
@@ -591,7 +591,7 @@
     <t xml:space="preserve">A</t>
   </si>
   <si>
-    <t xml:space="preserve">Appolyon</t>
+    <t xml:space="preserve">Apollyon</t>
   </si>
   <si>
     <t xml:space="preserve">Apollyon is an angel of destruction, leading a swarm of insects with lion's teeth, human faces, crowns, and a scorpion's tail. Often depicted monstrously, as in Pilgrim's progress, where he has a lion's face, horns, armor of dragon scales, and bat's wings.</t>
@@ -612,7 +612,7 @@
     <t xml:space="preserve">Cain</t>
   </si>
   <si>
-    <t xml:space="preserve">The first murderer, who killed his brother when he grew jealous of his favor with God. Easy to think of as a caveman in a bear skin with a club, possibly with some distinctive mark. (The Mark of Cain) It's easy for me to see him with a red hour glass on his forehead, sort of like a black widow spider.</t>
+    <t xml:space="preserve">The first murderer, who killed his brother when he grew jealous of his favor with God. Easy to think of as a caveman in a bear skin with a club, possibly with some distinctive mark. (The Mark of Cain) It's easy for me to see him with a red hourglass on his forehead, sort of like a black widow spider.</t>
   </si>
   <si>
     <t xml:space="preserve">D</t>
@@ -621,7 +621,7 @@
     <t xml:space="preserve">Dagon</t>
   </si>
   <si>
-    <t xml:space="preserve">Dagon is a Philistine God, often depicted as a gigantic male statue with scales all over his body and a fish tail. Samson destroys the temple of Dagon. Dagon is also depicted as the god of a race of monstous fish people in a HP Lovecraft book of the same name.</t>
+    <t xml:space="preserve">Dagon is a Philistine God, often depicted as a gigantic male statue with scales all over his body and a fish tail. Samson destroys the temple of Dagon. Dagon is also depicted as the god of a race of monstrous fish people in a HP Lovecraft book of the same name.</t>
   </si>
   <si>
     <t xml:space="preserve">E</t>
@@ -630,22 +630,22 @@
     <t xml:space="preserve">Eve</t>
   </si>
   <si>
-    <t xml:space="preserve">I though about picking Enoch (he's kind of cool and mysterious); but he's hard to visualize in a distinctive way in a group teeming with bearded Jewish patriarchs. Much easier to visualize a naked chick with a snake instead.</t>
+    <t xml:space="preserve">I thought about picking Enoch (he's kind of cool and mysterious); but he's hard to visualize in a distinctive way in a group teeming with bearded Jewish patriarchs. Much easier to visualize a naked chick with a snake instead.</t>
   </si>
   <si>
     <t xml:space="preserve">F</t>
   </si>
   <si>
-    <t xml:space="preserve">Pharoah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The antagonist of exodus, and adopted relative of Moses. Would've been nice to go with a true "F" here, but there are literally two F names in the whole bible, and they are two Roman guys who ruled over Juresalem, and I'm already using a different Roman guy who ruled over Israel, Herod, for my H. Easy to remember as a Mediteranean (or Black if you prefer) guy with with the destinctive Egyptian head dress, distinctive Egyptian beard, and ceremonial religious objects, the Pharaoh being sort of the "Pope of Ra" and minor god in his own right.</t>
+    <t xml:space="preserve">Pharaoh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The antagonist of exodus, and adopted relative of Moses. Would've been nice to go with a true "F" here, but there are literally two F names in the whole bible, and they are two Roman guys who ruled over Jerusalem, and I'm already using a different Roman guy who ruled over Israel, Herod, for my H. Easy to remember as a Mediteranean (or Black if you prefer) guy with with the distinctive Egyptian headdress, distinctive Egyptian beard, and ceremonial religious objects, the Pharaoh being sort of the "Pope of Ra" and minor god in his own right.</t>
   </si>
   <si>
     <t xml:space="preserve">G</t>
   </si>
   <si>
-    <t xml:space="preserve">Goliath,</t>
+    <t xml:space="preserve">Goliath</t>
   </si>
   <si>
     <t xml:space="preserve">A giant, best known for getting beaten by David. Goliath is actually part of a family of Giants, and David has to go kill them as well.</t>
@@ -654,402 +654,408 @@
     <t xml:space="preserve">H</t>
   </si>
   <si>
+    <t xml:space="preserve">Herod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herod is the antagonist of early part of the gospels, who kills off the first born children of Bethlehem when hearing about Jesus, "the King of the Jews," from the wise men. This is one of about a billion parallels between Moses and Jesus. I often confuse with him with Pilate, even though Pilate is a Roman prefect and Herod is a Hebrew king. Because of this, I think Herod should have quite a massive and striking blotch of blood on the belly of his white toga and hands, as opposed to Pilate, who liked to "keep his hands clean."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iscariot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iscariot, aka Judas Iscariot, betrays jesus for 13 pieces of silver, with a kiss. The bible actually gives conflicting stories of his death, in one passage saying he hung himself, in another that he went into a field and burst open. his guts spilling out. It might be helpful to visualize both when he shows up in our memory palace, a deeply distraught man with a red tunic, perhaps demon possessed, a rope around his neck and his guts spilling out into his hands, full of silver, making literal "dirty money."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joseph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joseph is the name of two very important characters, one being the father of Jesus. I actually prefer the other for this purpose: the favorite of Jacob, who was given a coat of many colors and had a gift for interpreting dreams. His brothers grew jealous of him, dropping him into a well before selling him into slavery. When they go back to their father to explain, they smear it with blood, and say that is all that's left of him. Joseph eventually reunites with his family and gets a happy ending, but this might be the most suggestive of a good image: a farmer boy with an incogruously beautiful rainbow coat, even more incongruously dripping with blood.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King Solomon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon is a king, and son of David, himself a musician and giant-slayer. King Solomon is granted a boon by God, and Solomon asks for wisdom. Solomon is known for vast riches and an enormous harem in addition to his wisdom. When visualizing him, it's easy to imagine an ornate golden crown, and golden jewelry, although you might also imagine him with some of his harem, if that helps. A popular story involving Solomon involves him settling a dispute between two women, who both contend that a baby is theirs: he offers to cut the baby in half, and split it between the two. Solomon, of course, doesn't do this. (That wouldn't be very wise!) But, upon seeing that one women agrees, while the other woman offers to give the child to the other in order to save the baby, he knows who the baby really belongs to.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucifer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meaning "Light Bearer" and associated with the planet venus. Isaiah describes a parable of Lucifer being cast into hell from heaven for being too proud, possibly in reference to the king of Babylon. But it's also a common piece of Christian folklore that the king of demons was once an angel of light, named Lucifer. For visualization purposes, you can really take your pick: a classic red devil, an evil satyr-like beast, or something else. You may want to avoid a straight-up angel of light here, though, as we're using one for U (Uriel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moses is the protagonist of Exodus, known to work miracles with a long staff, and often depicted with white hair and a beard. To help make the visualization more distinctive, it might help to think of aspects that aren't often brought up: moses had a stutter, at one point, he carries a staff made of gold, shaped like a snake, to cure the Israelites of poison. It may also help to think of him as a baby, cast into the river to hide from Pharaoh who ordered the killing of every firstborn Hebrew child. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nimrod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noah is the best-known biblical N-name, but Nimrod is a bit more distinctive as a "Hunter of Man," who is sometimes depicted as falling from the tower of Babel. He's a mighty hunter in the prehistoric age, so he's probably wearing a coat of some mighty animal, like a lion. He's a king, so he probably also wears a golden crown. And he's the son of Cush; Nimrod shows up in the table of Nations and Cush isn't so much the name of a person as a name of a people, Kush being the ancient name of the Ethiopians. This guy should be seriously ink-dark black, and muscley from a regime of wrestling lions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onesimus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onesimus was a slave that stole something from his master, Philemon, and ran away to escape punishment. He runs into Paul, who converts him to Christianity, and sends him back to his master. He also gets mentioned later as one of the early Bishops. These might be enough by himself: a man in slave shackles with a bishop hat, but he's also believed to be martyred, in some testaments, by beheading. In which case, we can imagine a headless man, in shackles, carrying a head with a bishop hat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pilate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White Toga, golden laurel, distinctive Roman short-cropped hair, beardless, distinctive clean and white, a fragile smile with shiny white teeth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queen of Sheba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queen from southern Arabia, often depicted as black; wife of Solomon. In an Islamic story, she has hairy legs and cloven hooves, which may make this easier to visualize.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruth is a Moabite woman, but all the depictions I can find of her are of a pretty Ashkenazi girl who would fit in right on the set of Fiddler on the Roof, covered hair, carrying wheat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samson of course has long hair and is mighty enough to take on an army of Philistines with only a donkey's jawbone. He had taken a vow not to cut his hair or drink wine. He gets blinded when he gets tricked into a haircut and imprisoned. Samson is always doing these really cool feats of strength in the bible, but before he does, it always says, "the spirit of God came upon him." In some (extra-biblical) versions, when the strength of God wasn't upon him, Samson, was lame in both feet. That should be enough for an image: long hair, cartoonishly size shoulders and biceps, gouged out eyes, in a wheelchair.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doubting Thomas, or St. Thomas. According to tradition he was martyred with a spear while he was preaching the Gospel in India, so it may be easiest to imagine him as bald. bearded, with a spear through his side. He's also most famous for poking into Jesus's wounds to see that he really has risen from the dead. And, also by tradition, Thomas is a builder by profession. So, we can imagine him, spear through his side, blood dripping from his finger, with cement on his anachronistic overalls.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uriel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An angel, mysterious, can be visualized a few different ways: as a class "putti" style cherub, a cute angel with wings, as the angel of Eden, a winged creature with a flaming sword, or as a cherubim depicted in the bible: four faced, four legged, four winged creatures, covered in eyes, hidden by the wing, emitting like, with skin like a glossy green stone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vashti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vashti is the name of a Persian king in the Book of Esther. It's easy to imagine her as a beautiful, spoiled princess.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wisemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traditionally, three men, from far to the east, though it may be easier to think of one. I suggest exaggerating the image of the wise men a little, perhaps as dark skinned Indians, with gems in their turbans, knees and waist bent over with the burden of the enormous pile of gifts that they have brought. You could try to visualize frankincense as long stems of incense, putting off smoke, the gold as gleaming bars, and the myrrh as dark purple perfume in long stemmed bottles, or just think of them, fat, with white beards, and presents wrapped in red and gold paper. It's up to you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xerxes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here I'm cheating a little; Xerxes doesn't get a spot in the bible, though his relatives Darius and Cyrus do. Persian kings are notoriously tall, being over six feet in an era when men most often less than 5 and a half feet. For visualization, it's hard to beat his depiction in 300: tall, lanky and gaunt, black, bald, with golden outlandish piercings, his mobile throne carried by an army of slaves.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeshua,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I.e. Jesus. Try not to picture him as just a Jew in a toga, as we've got a lot of those to around. Actually, also avoid thinking of him as a baby, as that spot gets taken by Moses. It could be fun to take the passage often used to argue that Jesus was black ultra literally: a man with skin made of brass and an afro and beard white like the wool of a sheep, a sword in his mouth, a crown made of thorns, blood dripping from the holes in his hands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zipporah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zippora is the wife of Moses, a foreign woman described as dark skinned, often depicted as black. (This is somewhat complicated, the bible sometimes describes Moses as marrying a Cushite wife, who would definitely be black, or Kenite wife, who would be more mysterious) I actually quite like her depiction in the Prince of Egypt; dark skinned, braids, earings, loose clothing, maybe with a shepherd's staff.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absorbs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For our A-action, we'll use "absorb." So to remember "Beatrice adores Theodore," we'll turn it into "BaT" and convert them into "Baal absorbs T-Rexes;" So we imagine a gold statue, with a tall philistine helmet and bull horns; it opens its mouth, very wide and, Kirby-style begins to suck the T-rex into itself, the T-rex helplessly rises off the ground and is dragged into Baal's mouth, and Baal, also Kirby-style, grows a T-Rex tail.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bubbles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For our B-action, we'll use "bubble." So to remember "Alexis Blythe Courtney," we'll turn it into "ABC" and convert that into "Apollyon bubbles cats," So we image a lion faced bat-winged creature, with armor made of metal scales blowing bubbles in the shape of cats.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cooks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For our C-action, we'll use "cook." So to remember the word</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detonates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electrocutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hypnotizes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imprisons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jumps over</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kisses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liquidates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mechanizes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outlaws</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poisons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quadruples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rotates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smokes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">throws</t>
+  </si>
+  <si>
+    <t xml:space="preserve">undresses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vandalizes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">washing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x-rays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yokes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zaps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alligator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">butterfly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elephant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giraffe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hippopotamus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iguana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jellyfish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kangaroo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lobster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nautilus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">panda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rhinoceros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t-rex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urchin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vulture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">walrus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x-mas reindeer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zebra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subject (Candidates)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam, Abraham, Aaron, Abel, Apollyon, Azriel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baal, Beelzebub, Bathsheba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cain, Cyrus,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dagon, Daniel, Darius, Deborah, David</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elijah, Enoch, Esther, Esau, Eve, Ezra, Ezekiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felix, Festus (Both Roman dudes in charge of Judea. :/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gideon, Goliath,</t>
+  </si>
+  <si>
     <t xml:space="preserve">Herod,</t>
   </si>
   <si>
-    <t xml:space="preserve">Herod is the antagonist of early part of the gospels, who kills off the first born children of Bethlehem when hearing about Jesus, "the King of the Jews," from the wise men. This is one of about a billion parellels between Moses and Jesus. I often confuse with him with Pilate, even though Pilate is a Roman prefect and Herod is a Hebrew king. Because of this, I think Herod should have quite a massive and striking blotch of blood on the belly of his white toga and hands, as opposed to Pilate, who liked to "keep his hands clean."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iscariot,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iscariot, aka Judas Iscariot, betrays jesus for 13 pieces of silver, with a kiss. The bible actually gives conflicting stories of his death, in one passage saying he hung himself, in another that he went into a field and burst open. his guts spilling out. It might be helpful to visualize both when he shows up in our memory palace, a deeply distraught man with a red tunic, perhaps demon possessed, a rope around his neck and his guts spilling out into his hands, full of silver, making literal "dirty money."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joseph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joseph is the name of two very important characters, one being the father of Jesus. I actually prefer the other for this purpose: the favorite of Jacob, who was given a coat of many colors and had a gift for interpreting dreams. His brothers grew jealous of him, dropping him into a well before selling him into slavery. When they go back to their father to explain, they smear it with blood, and say that is all that's left of him. Joseph eventually reunites with his family and gets a happy ending, but this might be the most suggestive of a good image: a farmer boy with an incogruously beautiful rainbow coat, even more incongruously dripping with blood.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King Solomon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solomon is a king, and son of David, himself a musician and giant-slayer. King Solomon is granted a boon by God, and Solomon asks for wisdom. Solomon is known for vast riches and an enormous harem in addition to his wisdom. When visualizing him, it's easy to imagine an ornate golden crown, and golden jewelry, although you might also imagine him with some of his harem, if that helps. A popular story involving Solomon involves him settling a dispute between two women, who both contend that a baby is theirs: he offers to cut the baby in half, and split it between the two. Solomon, of course, doesn't do this. (That wouldn't be very wise!) But, upon seeing that one women agrees, while the other woman offers to give the child to the other in order to save the baby, he knows who the baby really belongs to.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucifer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meaning "Light Bearer" and associated with the planet venus. Isaiah describes a parable of Lucifer being cast into hell from heaven for being too proud, possibly in reference to the king of Babylon. But it's also a common piece of Christian folklore that the king of demons was once an angel of light, named Lucifer. For visulization purposes, you can really take your pick: a classic red devil, an evil satyr-like beast, or something else. You may want to avoid a straight-up angel of light here, though, as we're using one for U (Uriel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moses is the protogonist of Exodus, known to work miracles with a long staff, and often depicted with white hair and a beard. To help make the visualization more distinctive, it might help to think of aspects that aren't often brought up: moses had a stutter, at one point, he carries a staff made of gold, shaped like a snake, to cure the Israelites of poion. It may also help to think of him as a baby, cast into the river to hide from Pharaoh who ordered the killing of every firstborn Hebrew child. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nimrod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noah is the best-known biblical N-name, but Nimrod is a bit more distinctive as a "Hunter of Man," who is sometimes depicted as falling from the tower of Babel. He's a mighty hunter in the prehistoric age, so he's probably wearing a coat of some mighty animal, like a lion. He's a king, so he probabably also wears a golden crown. And he's the son of Cush; Nimrod shows up in the table of Nations and Cush isn't so much the name of a person as a name of a people, Kush being the ancient name of the Ethiopians. This guy should be seriously ink-dark black, and muscley from a regime of wrestling lions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onesimus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onesimus was a slave that stole something from his master, Philemon, and ran away to escape punishment. He runs into Paul, who converts him to Christianity, and sends him back to his master. He also gets mentioned later as one of the early Bishops. These might be enough by themselve: a man in slave shackles with a bishop hat, but he's also believed to be martyred, in some testaments, by beheading. In which case, we can imagine a headless man, in shackles, carrying a head with a bishop hat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilate,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White Toga, golden laurel, distinctive Roman short-cropped hair, beardless, distinctive clean and white, a fragile smile with shiny white teeth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queen of Sheba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queen from southern Arabia, often depicted as black; wife of Solomon. In an Islamic story, she has hairy legs and cloven hooves, which may make this easier to visualize.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruth is a Moabite woman, but all the depictions I can find of her are of a pretty Ashkenazi girl who would fit in right on the set of Fiddler on the Roof, covered hair, carrying wheat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samson of course has long hair and is mighty enough to take on an army of Philistines with only a donkey's jawbone. He had taken a vow not to cut his hair or drink wine. He gets blinded when he gets tricked into a haircut and imprisoned. Samson is always doing these really cool feats of strength in the bible, but before he does, it always says, "the spirit of God came upon him." In some (extra-biblical) versions, when the strength of God wasn't upon him, Samson, was lame in both feet. That should be enough for an image: long hair, cartoonishly size shoulders and biceps, gouged out eyes, in a wheel chair.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doubting Thomas, or St. Thomas. According to tradition he was martyred with a spear while he was preaching the Gospel in India, so it may be easiest to imagine him as bald. bearded, with a spear through his side. He's also most famous for poking into Jesus's wounds to see that he really has risen from the dead. And, also by tradition, Thomas is a builder by profession. So, we can imagine him, spear through his side, blood dripping from his finger, with cement on his anachronistic overalls.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uriel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An angel, mysterious, can be visualized a few different ways: as a class "putti" style cherub, a cute angel with wings, as the angel of Eden, a winged creature with a flaming sword, or as a cherubim depicted in the bible: four faced, four legged, four winged creatures, covered in eyes, hidden by the wing, emmiting like, with skin like a glossy green stone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V</t>
+    <t xml:space="preserve">Isaac, Iscariot,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesus, Judas, Jacob, James, Jehovah, Joseph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K (Wikipedia lists a lot of names, none of which I recognize)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leah, Luke, Lucifer, Lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magdalene, Mathew, Mary, Michael, Moses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noah, Nimrod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obadiah (Prophet and descendent of Esau; everyone else is more obscure than this), Omar (obscure, but makes me think of Captain Omar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul, Peter, Pharaoh, Pharisees, Philistines, (Maybe one of these can work for our F?), Pilate,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queen of Sheba (Apparently the only names)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruth, Rachel,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seth, Samuel, Saul, Solomon, Samson, Simon, Sarah, Silas,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas, Timothy,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzziah (King of Israel), Uriah (Husband of Bathsheba), Uriel</t>
   </si>
   <si>
     <t xml:space="preserve">Vashti (former wife of Persian king)</t>
   </si>
   <si>
-    <t xml:space="preserve">Vashiti is the name of a Persian king in the Book of Esther. It's easy to imagine her as a beautiful, spoiled princess.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wisemen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traditionally, three men, from far to the east, though it may be easier to think of one. I suggest exaggerating the image of the wisemen a little, perhaps as dark skinned Indians, with gems in their turbans, knees and waist bent over with the burden of the enormous pile of gifts that they have brought. You could try to visualize frankensense as long stems of incense, putting off smoke, the gold as gleeming bars, and the mhyrr as dark purple perfume in long stemmed bottles, or just think of them, fat, with white beards, and presents wrapped in red and gold paper. It's up to you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xerxes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here I'm cheating a little; Xerxes doesn't get a spot in the bible, though his relatives Darius and Cyrus do. Persian kings are notoriously tall, being over six feet in an era when men most often less than 5 and a half feet. For visualization, it's hard to beat his depiction in 300: tall, lanky and gaunt, black, bald, with golden outlandish piercings, his mobile throne carried by an army of slaves.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yeshua,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I.e. Jesus. Try not to picture him as just a Jew in a toga, as we've got a lot of those to around. Actually, also avoid thinking of him as a baby, as that spot gets taken by Moses. It could be fun to take the passage often used to argue that Jesus was black ultra literally: a man with skin made of brass and an afro and beard white like the wool of a sheep, a sword in his mouth, a crown made of thorns, blood dripping from the holes in his hands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zipporah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zippora is the wife of Moses, a foreign woman described as dark skinned, often depicted as black. (This is somewhat complicated, the bible sometimes describes Moses as marrying a Cushite wife, who would definitely be black, or Kenite wife, who would be more mysterious) I actually quite like her depiction in the Prince of Egypt; dark skinned, braids, earings, loose clothing, maybe with a shephard staff.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">absorbs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For our A-action, we'll use "absorb." So to remember "Beatrice adores Theodore," we'll turn it into "BaT" and convert them into "Baal absorbs T-Rexes;" So we imagine a gold statue, with a tall philistine helmet and bull horns; it opens it's mouth, very wide and, Kirby-style begins to suck the T-rex into itself, the T-rex helplessly rises off the ground and is dragged into Baal's mouth, and Baal, also Kirby-style, grows a T-Rex tail.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bubbles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For our B-action, we'll use "bubble." So to remember "Alexis Blythe Courtney," we'll turn it into "ABC" and convert that into "Apollyon bubbles cats," So we image a lion faced bat-winged creature, with armor made of metal scales blowing bubbles in the shape of cats.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cooks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For our C-action, we'll use "cook." So to remember the word</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detonates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">electrocutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hypnotizes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imprisons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jumps over</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kisses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liquidates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mechanizes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nails</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outlaws</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poisons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quadruples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rotates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smokes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">throws</t>
-  </si>
-  <si>
-    <t xml:space="preserve">undresses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vandalizes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">washing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x-rays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yokes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zaps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alligator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">butterfly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elephant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">giraffe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hippopotamus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iguana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jellyfish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kangaroo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lobster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nautilus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">panda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rhinocerous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sloth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t-rex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urchin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vulture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">walrus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x-mas reindeer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zebra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subject (Candidates)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adam, Abraham, Aaron, Abel, Appolyon, Azriel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baal, Beelzebub, Bathsheba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cain, Cyrus,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dagon, Daniel, Darius, Deborah, David</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elijah, Enoch, Esther, Esau, Eve, Ezra, Ezekiel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felix, Festus (Both Roman dudes in charge of Judea. :/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gideon, Goliath,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isaac, Iscariot,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jesus, Judas, Jacob, James, Jehovah, Joseph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K (Wikipedia lists a lot of names, none of which I recognize)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leah, Luke, Lucifer, Lot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magdelene, Mathew, Mary, Michael, Moses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noah, Nimrod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obadiah (Prophet and descendent of Esau; everyone else is more obsure than this), Omar (obsure, but makes me think of Captain Omar)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paul, Peter, Pharoah, Pharisees, Philistines, (Maybe one of these can work for our F?), Pilate,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queen of Sheba (Aparently the only names)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruth, Rachel,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seth, Samuel, Saul, Solomon, Samson, Simon, Sarah, Silas,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas, Timothy,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uzziah (King of Israel), Uriah (Husband of Bathsheba), Uriel</t>
-  </si>
-  <si>
     <t xml:space="preserve">W (literally none)</t>
   </si>
   <si>
@@ -1221,7 +1227,7 @@
     <t xml:space="preserve">film</t>
   </si>
   <si>
-    <t xml:space="preserve">forcefeeds</t>
+    <t xml:space="preserve">force feeds</t>
   </si>
   <si>
     <t xml:space="preserve">Greet</t>
@@ -1248,7 +1254,7 @@
     <t xml:space="preserve">gurgle</t>
   </si>
   <si>
-    <t xml:space="preserve">guilitine</t>
+    <t xml:space="preserve">guillotine</t>
   </si>
   <si>
     <t xml:space="preserve">gluing</t>
@@ -1341,7 +1347,7 @@
     <t xml:space="preserve">levitate</t>
   </si>
   <si>
-    <t xml:space="preserve">liguidate</t>
+    <t xml:space="preserve">liquidate</t>
   </si>
   <si>
     <t xml:space="preserve">lynch</t>
@@ -1494,7 +1500,7 @@
     <t xml:space="preserve">shoot</t>
   </si>
   <si>
-    <t xml:space="preserve">sacrafice</t>
+    <t xml:space="preserve">sacrifice</t>
   </si>
   <si>
     <t xml:space="preserve">scream</t>
@@ -1536,7 +1542,7 @@
     <t xml:space="preserve">transforms into</t>
   </si>
   <si>
-    <t xml:space="preserve">tyedye</t>
+    <t xml:space="preserve">tie dye</t>
   </si>
   <si>
     <t xml:space="preserve">tackle</t>
@@ -1635,7 +1641,7 @@
     <t xml:space="preserve">orangutan</t>
   </si>
   <si>
-    <t xml:space="preserve">ocotopus</t>
+    <t xml:space="preserve">octopus</t>
   </si>
   <si>
     <t xml:space="preserve">oyster</t>
@@ -1683,7 +1689,7 @@
     <t xml:space="preserve">squirrel</t>
   </si>
   <si>
-    <t xml:space="preserve">sting ray</t>
+    <t xml:space="preserve">stingray</t>
   </si>
   <si>
     <t xml:space="preserve">sheep</t>
@@ -1710,13 +1716,13 @@
     <t xml:space="preserve">tiger</t>
   </si>
   <si>
-    <t xml:space="preserve">ursing </t>
+    <t xml:space="preserve">nursing </t>
   </si>
   <si>
     <t xml:space="preserve">unicorn</t>
   </si>
   <si>
-    <t xml:space="preserve">victeebell</t>
+    <t xml:space="preserve">victreebel</t>
   </si>
   <si>
     <t xml:space="preserve">washington</t>
@@ -1747,7 +1753,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1782,6 +1788,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -1848,7 +1860,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1861,15 +1873,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1881,7 +1897,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1899,48 +1923,6 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>961920</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>134280</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2997720" y="200160"/>
-          <a:ext cx="190080" cy="275760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2064,7 +2046,7 @@
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2144,7 +2126,7 @@
       <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2163,7 +2145,7 @@
       <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -2174,7 +2156,7 @@
       <c r="A20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -2185,7 +2167,7 @@
       <c r="A21" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2196,7 +2178,7 @@
       <c r="A22" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -2243,7 +2225,7 @@
       <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2265,7 +2247,7 @@
       <c r="B28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2295,7 +2277,7 @@
       <c r="A31" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2317,7 +2299,7 @@
       <c r="A33" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2328,7 +2310,7 @@
       <c r="A34" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2353,7 +2335,7 @@
       <c r="B36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2419,7 +2401,7 @@
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2430,7 +2412,7 @@
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2449,7 +2431,7 @@
       <c r="A45" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -2482,7 +2464,7 @@
       <c r="A48" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -2490,7 +2472,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="n">
+      <c r="A49" s="5" t="n">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -2501,7 +2483,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="n">
+      <c r="A50" s="5" t="n">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -2512,7 +2494,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="n">
+      <c r="A51" s="5" t="n">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -2523,18 +2505,18 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="n">
+      <c r="A52" s="5" t="n">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="n">
+      <c r="A53" s="5" t="n">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -2545,247 +2527,247 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="n">
+      <c r="A54" s="5" t="n">
         <v>53</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="n">
+      <c r="A55" s="5" t="n">
         <v>54</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="n">
+      <c r="A56" s="5" t="n">
         <v>55</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="n">
+      <c r="A57" s="5" t="n">
         <v>56</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="n">
+      <c r="A58" s="5" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="n">
+      <c r="A59" s="5" t="n">
         <v>58</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="n">
+      <c r="A60" s="5" t="n">
         <v>59</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="n">
+      <c r="A61" s="5" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="n">
+      <c r="A62" s="5" t="n">
         <v>61</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="n">
+      <c r="A63" s="5" t="n">
         <v>62</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="n">
+      <c r="A64" s="5" t="n">
         <v>63</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="n">
+      <c r="A65" s="5" t="n">
         <v>64</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="n">
+      <c r="A66" s="5" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="n">
+      <c r="A67" s="5" t="n">
         <v>66</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="n">
+      <c r="A68" s="5" t="n">
         <v>67</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="n">
+      <c r="A69" s="5" t="n">
         <v>68</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="n">
+      <c r="A70" s="5" t="n">
         <v>69</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="n">
+      <c r="A71" s="5" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="n">
+      <c r="A72" s="5" t="n">
         <v>71</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="n">
+      <c r="A73" s="5" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="n">
+      <c r="A74" s="5" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="n">
+      <c r="A75" s="5" t="n">
         <v>74</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="n">
+      <c r="A76" s="5" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="n">
+      <c r="A77" s="5" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="n">
+      <c r="A78" s="5" t="n">
         <v>77</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="n">
+      <c r="A79" s="5" t="n">
         <v>78</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="n">
+      <c r="A80" s="5" t="n">
         <v>79</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="n">
+      <c r="A81" s="5" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="n">
+      <c r="A82" s="5" t="n">
         <v>81</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="n">
+      <c r="A83" s="5" t="n">
         <v>82</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="n">
+      <c r="A84" s="5" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="n">
+      <c r="A85" s="5" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4" t="n">
+      <c r="A86" s="5" t="n">
         <v>85</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4" t="n">
+      <c r="A87" s="5" t="n">
         <v>86</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4" t="n">
+      <c r="A88" s="5" t="n">
         <v>87</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4" t="n">
+      <c r="A89" s="5" t="n">
         <v>88</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4" t="n">
+      <c r="A90" s="5" t="n">
         <v>89</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4" t="n">
+      <c r="A91" s="5" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4" t="n">
+      <c r="A92" s="5" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="n">
+      <c r="A93" s="5" t="n">
         <v>92</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4" t="n">
+      <c r="A94" s="5" t="n">
         <v>93</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="4" t="n">
+      <c r="A95" s="5" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="4" t="n">
+      <c r="A96" s="5" t="n">
         <v>95</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4" t="n">
+      <c r="A97" s="5" t="n">
         <v>96</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="4" t="n">
+      <c r="A98" s="5" t="n">
         <v>97</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="4" t="n">
+      <c r="A99" s="5" t="n">
         <v>98</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="4" t="n">
+      <c r="A100" s="5" t="n">
         <v>99</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="4" t="n">
+      <c r="A101" s="5" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4" t="n">
+      <c r="A102" s="5" t="n">
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -2796,183 +2778,183 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4" t="n">
+      <c r="A103" s="5" t="n">
         <v>102</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="4" t="n">
+      <c r="A104" s="5" t="n">
         <v>103</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="4" t="n">
+      <c r="A105" s="5" t="n">
         <v>104</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="4" t="n">
+      <c r="A106" s="5" t="n">
         <v>105</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="4" t="n">
+      <c r="A107" s="5" t="n">
         <v>106</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="4" t="n">
+      <c r="A108" s="5" t="n">
         <v>107</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="4" t="n">
+      <c r="A109" s="5" t="n">
         <v>108</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="4" t="n">
+      <c r="A110" s="5" t="n">
         <v>109</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="4" t="n">
+      <c r="A111" s="5" t="n">
         <v>110</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="4" t="n">
+      <c r="A112" s="5" t="n">
         <v>111</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="4" t="n">
+      <c r="A113" s="5" t="n">
         <v>112</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="4" t="n">
+      <c r="A114" s="5" t="n">
         <v>113</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="4" t="n">
+      <c r="A115" s="5" t="n">
         <v>114</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="4" t="n">
+      <c r="A116" s="5" t="n">
         <v>115</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="4" t="n">
+      <c r="A117" s="5" t="n">
         <v>116</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="4" t="n">
+      <c r="A118" s="5" t="n">
         <v>117</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="5"/>
+      <c r="A119" s="6"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="5"/>
+      <c r="A120" s="6"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="5"/>
+      <c r="A121" s="6"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="5"/>
+      <c r="A122" s="6"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="5"/>
+      <c r="A123" s="6"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="5"/>
+      <c r="A124" s="6"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="5"/>
+      <c r="A125" s="6"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="5"/>
+      <c r="A126" s="6"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="5"/>
+      <c r="A127" s="6"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="5"/>
+      <c r="A128" s="6"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="5"/>
+      <c r="A129" s="6"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="5"/>
+      <c r="A130" s="6"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="5"/>
+      <c r="A131" s="6"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="5"/>
+      <c r="A132" s="6"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="5"/>
+      <c r="A133" s="6"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="5"/>
+      <c r="A134" s="6"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="5"/>
+      <c r="A135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="5"/>
+      <c r="A136" s="6"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="5"/>
+      <c r="A137" s="6"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="5"/>
+      <c r="A138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="5"/>
+      <c r="A139" s="6"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="5"/>
+      <c r="A140" s="6"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="5"/>
+      <c r="A141" s="6"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="5"/>
+      <c r="A142" s="6"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="5"/>
+      <c r="A143" s="6"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="5"/>
+      <c r="A144" s="6"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="5"/>
+      <c r="A145" s="6"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="5"/>
+      <c r="A146" s="6"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="5"/>
+      <c r="A147" s="6"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="5"/>
+      <c r="A148" s="6"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="5"/>
+      <c r="A149" s="6"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="5"/>
+      <c r="A150" s="6"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="5"/>
+      <c r="A151" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3037,7 +3019,7 @@
       <c r="A5" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3395,12 +3377,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.71"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -3408,10 +3393,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>187</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -3419,10 +3404,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>190</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -3430,54 +3415,54 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>205</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3485,21 +3470,21 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>211</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -3507,10 +3492,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>214</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -3518,10 +3503,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>217</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -3529,54 +3514,54 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="9" t="s">
         <v>232</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -3584,10 +3569,10 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>235</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3595,10 +3580,10 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>123</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -3606,21 +3591,21 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>243</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -3628,43 +3613,43 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>255</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -3672,10 +3657,10 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>258</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -3683,3907 +3668,3907 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="7"/>
-      <c r="B117" s="7"/>
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="7"/>
-      <c r="B119" s="7"/>
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="7"/>
-      <c r="B120" s="7"/>
+      <c r="A120" s="8"/>
+      <c r="B120" s="8"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="7"/>
-      <c r="B121" s="7"/>
+      <c r="A121" s="8"/>
+      <c r="B121" s="8"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="7"/>
-      <c r="B122" s="7"/>
+      <c r="A122" s="8"/>
+      <c r="B122" s="8"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="7"/>
-      <c r="B123" s="7"/>
+      <c r="A123" s="8"/>
+      <c r="B123" s="8"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="7"/>
-      <c r="B124" s="7"/>
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="7"/>
-      <c r="B125" s="7"/>
+      <c r="A125" s="8"/>
+      <c r="B125" s="8"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="7"/>
-      <c r="B126" s="7"/>
+      <c r="A126" s="8"/>
+      <c r="B126" s="8"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="7"/>
-      <c r="B127" s="7"/>
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="7"/>
-      <c r="B128" s="7"/>
+      <c r="A128" s="8"/>
+      <c r="B128" s="8"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="7"/>
-      <c r="B129" s="7"/>
+      <c r="A129" s="8"/>
+      <c r="B129" s="8"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="7"/>
-      <c r="B130" s="7"/>
+      <c r="A130" s="8"/>
+      <c r="B130" s="8"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="7"/>
-      <c r="B131" s="7"/>
+      <c r="A131" s="8"/>
+      <c r="B131" s="8"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="7"/>
-      <c r="B132" s="7"/>
+      <c r="A132" s="8"/>
+      <c r="B132" s="8"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="7"/>
-      <c r="B133" s="7"/>
+      <c r="A133" s="8"/>
+      <c r="B133" s="8"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="7"/>
-      <c r="B134" s="7"/>
+      <c r="A134" s="8"/>
+      <c r="B134" s="8"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="7"/>
-      <c r="B135" s="7"/>
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="7"/>
-      <c r="B136" s="7"/>
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="7"/>
-      <c r="B137" s="7"/>
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="7"/>
-      <c r="B138" s="7"/>
+      <c r="A138" s="8"/>
+      <c r="B138" s="8"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="7"/>
-      <c r="B139" s="7"/>
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="7"/>
-      <c r="B140" s="7"/>
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="7"/>
-      <c r="B141" s="7"/>
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="7"/>
-      <c r="B142" s="7"/>
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="7"/>
-      <c r="B143" s="7"/>
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="7"/>
-      <c r="B144" s="7"/>
+      <c r="A144" s="8"/>
+      <c r="B144" s="8"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="7"/>
-      <c r="B145" s="7"/>
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="7"/>
-      <c r="B146" s="7"/>
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="7"/>
-      <c r="B147" s="7"/>
+      <c r="A147" s="8"/>
+      <c r="B147" s="8"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="7"/>
-      <c r="B148" s="7"/>
+      <c r="A148" s="8"/>
+      <c r="B148" s="8"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="7"/>
-      <c r="B149" s="7"/>
+      <c r="A149" s="8"/>
+      <c r="B149" s="8"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="7"/>
-      <c r="B150" s="7"/>
+      <c r="A150" s="8"/>
+      <c r="B150" s="8"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="7"/>
-      <c r="B151" s="7"/>
+      <c r="A151" s="8"/>
+      <c r="B151" s="8"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="7"/>
-      <c r="B152" s="7"/>
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="7"/>
-      <c r="B153" s="7"/>
+      <c r="A153" s="8"/>
+      <c r="B153" s="8"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="7"/>
-      <c r="B154" s="7"/>
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="7"/>
-      <c r="B155" s="7"/>
+      <c r="A155" s="8"/>
+      <c r="B155" s="8"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="7"/>
-      <c r="B156" s="7"/>
+      <c r="A156" s="8"/>
+      <c r="B156" s="8"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="7"/>
-      <c r="B157" s="7"/>
+      <c r="A157" s="8"/>
+      <c r="B157" s="8"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="7"/>
-      <c r="B158" s="7"/>
+      <c r="A158" s="8"/>
+      <c r="B158" s="8"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="7"/>
-      <c r="B159" s="7"/>
+      <c r="A159" s="8"/>
+      <c r="B159" s="8"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="7"/>
-      <c r="B160" s="7"/>
+      <c r="A160" s="8"/>
+      <c r="B160" s="8"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="7"/>
-      <c r="B161" s="7"/>
+      <c r="A161" s="8"/>
+      <c r="B161" s="8"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="7"/>
-      <c r="B162" s="7"/>
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="7"/>
-      <c r="B163" s="7"/>
+      <c r="A163" s="8"/>
+      <c r="B163" s="8"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="7"/>
-      <c r="B164" s="7"/>
+      <c r="A164" s="8"/>
+      <c r="B164" s="8"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="7"/>
-      <c r="B165" s="7"/>
+      <c r="A165" s="8"/>
+      <c r="B165" s="8"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="7"/>
-      <c r="B166" s="7"/>
+      <c r="A166" s="8"/>
+      <c r="B166" s="8"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="7"/>
-      <c r="B167" s="7"/>
+      <c r="A167" s="8"/>
+      <c r="B167" s="8"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="7"/>
-      <c r="B168" s="7"/>
+      <c r="A168" s="8"/>
+      <c r="B168" s="8"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="7"/>
-      <c r="B169" s="7"/>
+      <c r="A169" s="8"/>
+      <c r="B169" s="8"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="7"/>
-      <c r="B170" s="7"/>
+      <c r="A170" s="8"/>
+      <c r="B170" s="8"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="7"/>
-      <c r="B171" s="7"/>
+      <c r="A171" s="8"/>
+      <c r="B171" s="8"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="7"/>
-      <c r="B172" s="7"/>
+      <c r="A172" s="8"/>
+      <c r="B172" s="8"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="7"/>
-      <c r="B173" s="7"/>
+      <c r="A173" s="8"/>
+      <c r="B173" s="8"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="7"/>
-      <c r="B174" s="7"/>
+      <c r="A174" s="8"/>
+      <c r="B174" s="8"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="7"/>
-      <c r="B175" s="7"/>
+      <c r="A175" s="8"/>
+      <c r="B175" s="8"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="7"/>
-      <c r="B176" s="7"/>
+      <c r="A176" s="8"/>
+      <c r="B176" s="8"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="7"/>
-      <c r="B177" s="7"/>
+      <c r="A177" s="8"/>
+      <c r="B177" s="8"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="7"/>
-      <c r="B178" s="7"/>
+      <c r="A178" s="8"/>
+      <c r="B178" s="8"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="7"/>
-      <c r="B179" s="7"/>
+      <c r="A179" s="8"/>
+      <c r="B179" s="8"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="7"/>
-      <c r="B180" s="7"/>
+      <c r="A180" s="8"/>
+      <c r="B180" s="8"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="7"/>
-      <c r="B181" s="7"/>
+      <c r="A181" s="8"/>
+      <c r="B181" s="8"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="7"/>
-      <c r="B182" s="7"/>
+      <c r="A182" s="8"/>
+      <c r="B182" s="8"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="7"/>
-      <c r="B183" s="7"/>
+      <c r="A183" s="8"/>
+      <c r="B183" s="8"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="7"/>
-      <c r="B184" s="7"/>
+      <c r="A184" s="8"/>
+      <c r="B184" s="8"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="7"/>
-      <c r="B185" s="7"/>
+      <c r="A185" s="8"/>
+      <c r="B185" s="8"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="7"/>
-      <c r="B186" s="7"/>
+      <c r="A186" s="8"/>
+      <c r="B186" s="8"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="7"/>
-      <c r="B187" s="7"/>
+      <c r="A187" s="8"/>
+      <c r="B187" s="8"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="7"/>
-      <c r="B188" s="7"/>
+      <c r="A188" s="8"/>
+      <c r="B188" s="8"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="7"/>
-      <c r="B189" s="7"/>
+      <c r="A189" s="8"/>
+      <c r="B189" s="8"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="7"/>
-      <c r="B190" s="7"/>
+      <c r="A190" s="8"/>
+      <c r="B190" s="8"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="7"/>
-      <c r="B191" s="7"/>
+      <c r="A191" s="8"/>
+      <c r="B191" s="8"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="7"/>
-      <c r="B192" s="7"/>
+      <c r="A192" s="8"/>
+      <c r="B192" s="8"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="7"/>
-      <c r="B193" s="7"/>
+      <c r="A193" s="8"/>
+      <c r="B193" s="8"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="7"/>
-      <c r="B194" s="7"/>
+      <c r="A194" s="8"/>
+      <c r="B194" s="8"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="7"/>
-      <c r="B195" s="7"/>
+      <c r="A195" s="8"/>
+      <c r="B195" s="8"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="7"/>
-      <c r="B196" s="7"/>
+      <c r="A196" s="8"/>
+      <c r="B196" s="8"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="7"/>
-      <c r="B197" s="7"/>
+      <c r="A197" s="8"/>
+      <c r="B197" s="8"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="7"/>
-      <c r="B198" s="7"/>
+      <c r="A198" s="8"/>
+      <c r="B198" s="8"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="7"/>
-      <c r="B199" s="7"/>
+      <c r="A199" s="8"/>
+      <c r="B199" s="8"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="7"/>
-      <c r="B200" s="7"/>
+      <c r="A200" s="8"/>
+      <c r="B200" s="8"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="7"/>
-      <c r="B201" s="7"/>
+      <c r="A201" s="8"/>
+      <c r="B201" s="8"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="7"/>
-      <c r="B202" s="7"/>
+      <c r="A202" s="8"/>
+      <c r="B202" s="8"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="7"/>
-      <c r="B203" s="7"/>
+      <c r="A203" s="8"/>
+      <c r="B203" s="8"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="7"/>
-      <c r="B204" s="7"/>
+      <c r="A204" s="8"/>
+      <c r="B204" s="8"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="7"/>
-      <c r="B205" s="7"/>
+      <c r="A205" s="8"/>
+      <c r="B205" s="8"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="7"/>
-      <c r="B206" s="7"/>
+      <c r="A206" s="8"/>
+      <c r="B206" s="8"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="7"/>
-      <c r="B207" s="7"/>
+      <c r="A207" s="8"/>
+      <c r="B207" s="8"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="7"/>
-      <c r="B208" s="7"/>
+      <c r="A208" s="8"/>
+      <c r="B208" s="8"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="7"/>
-      <c r="B209" s="7"/>
+      <c r="A209" s="8"/>
+      <c r="B209" s="8"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="7"/>
-      <c r="B210" s="7"/>
+      <c r="A210" s="8"/>
+      <c r="B210" s="8"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="7"/>
-      <c r="B211" s="7"/>
+      <c r="A211" s="8"/>
+      <c r="B211" s="8"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="7"/>
-      <c r="B212" s="7"/>
+      <c r="A212" s="8"/>
+      <c r="B212" s="8"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="7"/>
-      <c r="B213" s="7"/>
+      <c r="A213" s="8"/>
+      <c r="B213" s="8"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="7"/>
-      <c r="B214" s="7"/>
+      <c r="A214" s="8"/>
+      <c r="B214" s="8"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="7"/>
-      <c r="B215" s="7"/>
+      <c r="A215" s="8"/>
+      <c r="B215" s="8"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="7"/>
-      <c r="B216" s="7"/>
+      <c r="A216" s="8"/>
+      <c r="B216" s="8"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="7"/>
-      <c r="B217" s="7"/>
+      <c r="A217" s="8"/>
+      <c r="B217" s="8"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="7"/>
-      <c r="B218" s="7"/>
+      <c r="A218" s="8"/>
+      <c r="B218" s="8"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="7"/>
-      <c r="B219" s="7"/>
+      <c r="A219" s="8"/>
+      <c r="B219" s="8"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="7"/>
-      <c r="B220" s="7"/>
+      <c r="A220" s="8"/>
+      <c r="B220" s="8"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="7"/>
-      <c r="B221" s="7"/>
+      <c r="A221" s="8"/>
+      <c r="B221" s="8"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="7"/>
-      <c r="B222" s="7"/>
+      <c r="A222" s="8"/>
+      <c r="B222" s="8"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="7"/>
-      <c r="B223" s="7"/>
+      <c r="A223" s="8"/>
+      <c r="B223" s="8"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="7"/>
-      <c r="B224" s="7"/>
+      <c r="A224" s="8"/>
+      <c r="B224" s="8"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="7"/>
-      <c r="B225" s="7"/>
+      <c r="A225" s="8"/>
+      <c r="B225" s="8"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="7"/>
-      <c r="B226" s="7"/>
+      <c r="A226" s="8"/>
+      <c r="B226" s="8"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="7"/>
-      <c r="B227" s="7"/>
+      <c r="A227" s="8"/>
+      <c r="B227" s="8"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="7"/>
-      <c r="B228" s="7"/>
+      <c r="A228" s="8"/>
+      <c r="B228" s="8"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="7"/>
-      <c r="B229" s="7"/>
+      <c r="A229" s="8"/>
+      <c r="B229" s="8"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="7"/>
-      <c r="B230" s="7"/>
+      <c r="A230" s="8"/>
+      <c r="B230" s="8"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="7"/>
-      <c r="B231" s="7"/>
+      <c r="A231" s="8"/>
+      <c r="B231" s="8"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="7"/>
-      <c r="B232" s="7"/>
+      <c r="A232" s="8"/>
+      <c r="B232" s="8"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="7"/>
-      <c r="B233" s="7"/>
+      <c r="A233" s="8"/>
+      <c r="B233" s="8"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="7"/>
-      <c r="B234" s="7"/>
+      <c r="A234" s="8"/>
+      <c r="B234" s="8"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="7"/>
-      <c r="B235" s="7"/>
+      <c r="A235" s="8"/>
+      <c r="B235" s="8"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="7"/>
-      <c r="B236" s="7"/>
+      <c r="A236" s="8"/>
+      <c r="B236" s="8"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="7"/>
-      <c r="B237" s="7"/>
+      <c r="A237" s="8"/>
+      <c r="B237" s="8"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="7"/>
-      <c r="B238" s="7"/>
+      <c r="A238" s="8"/>
+      <c r="B238" s="8"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="7"/>
-      <c r="B239" s="7"/>
+      <c r="A239" s="8"/>
+      <c r="B239" s="8"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="7"/>
-      <c r="B240" s="7"/>
+      <c r="A240" s="8"/>
+      <c r="B240" s="8"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="7"/>
-      <c r="B241" s="7"/>
+      <c r="A241" s="8"/>
+      <c r="B241" s="8"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="7"/>
-      <c r="B242" s="7"/>
+      <c r="A242" s="8"/>
+      <c r="B242" s="8"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="7"/>
-      <c r="B243" s="7"/>
+      <c r="A243" s="8"/>
+      <c r="B243" s="8"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="7"/>
-      <c r="B244" s="7"/>
+      <c r="A244" s="8"/>
+      <c r="B244" s="8"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="7"/>
-      <c r="B245" s="7"/>
+      <c r="A245" s="8"/>
+      <c r="B245" s="8"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="7"/>
-      <c r="B246" s="7"/>
+      <c r="A246" s="8"/>
+      <c r="B246" s="8"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="7"/>
-      <c r="B247" s="7"/>
+      <c r="A247" s="8"/>
+      <c r="B247" s="8"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="7"/>
-      <c r="B248" s="7"/>
+      <c r="A248" s="8"/>
+      <c r="B248" s="8"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="7"/>
-      <c r="B249" s="7"/>
+      <c r="A249" s="8"/>
+      <c r="B249" s="8"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="7"/>
-      <c r="B250" s="7"/>
+      <c r="A250" s="8"/>
+      <c r="B250" s="8"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="7"/>
-      <c r="B251" s="7"/>
+      <c r="A251" s="8"/>
+      <c r="B251" s="8"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="7"/>
-      <c r="B252" s="7"/>
+      <c r="A252" s="8"/>
+      <c r="B252" s="8"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="7"/>
-      <c r="B253" s="7"/>
+      <c r="A253" s="8"/>
+      <c r="B253" s="8"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="7"/>
-      <c r="B254" s="7"/>
+      <c r="A254" s="8"/>
+      <c r="B254" s="8"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="7"/>
-      <c r="B255" s="7"/>
+      <c r="A255" s="8"/>
+      <c r="B255" s="8"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="7"/>
-      <c r="B256" s="7"/>
+      <c r="A256" s="8"/>
+      <c r="B256" s="8"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="7"/>
-      <c r="B257" s="7"/>
+      <c r="A257" s="8"/>
+      <c r="B257" s="8"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="7"/>
-      <c r="B258" s="7"/>
+      <c r="A258" s="8"/>
+      <c r="B258" s="8"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="7"/>
-      <c r="B259" s="7"/>
+      <c r="A259" s="8"/>
+      <c r="B259" s="8"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="7"/>
-      <c r="B260" s="7"/>
+      <c r="A260" s="8"/>
+      <c r="B260" s="8"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="7"/>
-      <c r="B261" s="7"/>
+      <c r="A261" s="8"/>
+      <c r="B261" s="8"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="7"/>
-      <c r="B262" s="7"/>
+      <c r="A262" s="8"/>
+      <c r="B262" s="8"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="7"/>
-      <c r="B263" s="7"/>
+      <c r="A263" s="8"/>
+      <c r="B263" s="8"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="7"/>
-      <c r="B264" s="7"/>
+      <c r="A264" s="8"/>
+      <c r="B264" s="8"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="7"/>
-      <c r="B265" s="7"/>
+      <c r="A265" s="8"/>
+      <c r="B265" s="8"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="7"/>
-      <c r="B266" s="7"/>
+      <c r="A266" s="8"/>
+      <c r="B266" s="8"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="7"/>
-      <c r="B267" s="7"/>
+      <c r="A267" s="8"/>
+      <c r="B267" s="8"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="7"/>
-      <c r="B268" s="7"/>
+      <c r="A268" s="8"/>
+      <c r="B268" s="8"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="7"/>
-      <c r="B269" s="7"/>
+      <c r="A269" s="8"/>
+      <c r="B269" s="8"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="7"/>
-      <c r="B270" s="7"/>
+      <c r="A270" s="8"/>
+      <c r="B270" s="8"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="7"/>
-      <c r="B271" s="7"/>
+      <c r="A271" s="8"/>
+      <c r="B271" s="8"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="7"/>
-      <c r="B272" s="7"/>
+      <c r="A272" s="8"/>
+      <c r="B272" s="8"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="7"/>
-      <c r="B273" s="7"/>
+      <c r="A273" s="8"/>
+      <c r="B273" s="8"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="7"/>
-      <c r="B274" s="7"/>
+      <c r="A274" s="8"/>
+      <c r="B274" s="8"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="7"/>
-      <c r="B275" s="7"/>
+      <c r="A275" s="8"/>
+      <c r="B275" s="8"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="7"/>
-      <c r="B276" s="7"/>
+      <c r="A276" s="8"/>
+      <c r="B276" s="8"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="7"/>
-      <c r="B277" s="7"/>
+      <c r="A277" s="8"/>
+      <c r="B277" s="8"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="7"/>
-      <c r="B278" s="7"/>
+      <c r="A278" s="8"/>
+      <c r="B278" s="8"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="7"/>
-      <c r="B279" s="7"/>
+      <c r="A279" s="8"/>
+      <c r="B279" s="8"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="7"/>
-      <c r="B280" s="7"/>
+      <c r="A280" s="8"/>
+      <c r="B280" s="8"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="7"/>
-      <c r="B281" s="7"/>
+      <c r="A281" s="8"/>
+      <c r="B281" s="8"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="7"/>
-      <c r="B282" s="7"/>
+      <c r="A282" s="8"/>
+      <c r="B282" s="8"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="7"/>
-      <c r="B283" s="7"/>
+      <c r="A283" s="8"/>
+      <c r="B283" s="8"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="7"/>
-      <c r="B284" s="7"/>
+      <c r="A284" s="8"/>
+      <c r="B284" s="8"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="7"/>
-      <c r="B285" s="7"/>
+      <c r="A285" s="8"/>
+      <c r="B285" s="8"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="7"/>
-      <c r="B286" s="7"/>
+      <c r="A286" s="8"/>
+      <c r="B286" s="8"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="7"/>
-      <c r="B287" s="7"/>
+      <c r="A287" s="8"/>
+      <c r="B287" s="8"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="7"/>
-      <c r="B288" s="7"/>
+      <c r="A288" s="8"/>
+      <c r="B288" s="8"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="7"/>
-      <c r="B289" s="7"/>
+      <c r="A289" s="8"/>
+      <c r="B289" s="8"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="7"/>
-      <c r="B290" s="7"/>
+      <c r="A290" s="8"/>
+      <c r="B290" s="8"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="7"/>
-      <c r="B291" s="7"/>
+      <c r="A291" s="8"/>
+      <c r="B291" s="8"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="7"/>
-      <c r="B292" s="7"/>
+      <c r="A292" s="8"/>
+      <c r="B292" s="8"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="7"/>
-      <c r="B293" s="7"/>
+      <c r="A293" s="8"/>
+      <c r="B293" s="8"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="7"/>
-      <c r="B294" s="7"/>
+      <c r="A294" s="8"/>
+      <c r="B294" s="8"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="7"/>
-      <c r="B295" s="7"/>
+      <c r="A295" s="8"/>
+      <c r="B295" s="8"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="7"/>
-      <c r="B296" s="7"/>
+      <c r="A296" s="8"/>
+      <c r="B296" s="8"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="7"/>
-      <c r="B297" s="7"/>
+      <c r="A297" s="8"/>
+      <c r="B297" s="8"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="7"/>
-      <c r="B298" s="7"/>
+      <c r="A298" s="8"/>
+      <c r="B298" s="8"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="7"/>
-      <c r="B299" s="7"/>
+      <c r="A299" s="8"/>
+      <c r="B299" s="8"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="7"/>
-      <c r="B300" s="7"/>
+      <c r="A300" s="8"/>
+      <c r="B300" s="8"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="7"/>
-      <c r="B301" s="7"/>
+      <c r="A301" s="8"/>
+      <c r="B301" s="8"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="7"/>
-      <c r="B302" s="7"/>
+      <c r="A302" s="8"/>
+      <c r="B302" s="8"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="7"/>
-      <c r="B303" s="7"/>
+      <c r="A303" s="8"/>
+      <c r="B303" s="8"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="7"/>
-      <c r="B304" s="7"/>
+      <c r="A304" s="8"/>
+      <c r="B304" s="8"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="7"/>
-      <c r="B305" s="7"/>
+      <c r="A305" s="8"/>
+      <c r="B305" s="8"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="7"/>
-      <c r="B306" s="7"/>
+      <c r="A306" s="8"/>
+      <c r="B306" s="8"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="7"/>
-      <c r="B307" s="7"/>
+      <c r="A307" s="8"/>
+      <c r="B307" s="8"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="7"/>
-      <c r="B308" s="7"/>
+      <c r="A308" s="8"/>
+      <c r="B308" s="8"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="7"/>
-      <c r="B309" s="7"/>
+      <c r="A309" s="8"/>
+      <c r="B309" s="8"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="7"/>
-      <c r="B310" s="7"/>
+      <c r="A310" s="8"/>
+      <c r="B310" s="8"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="7"/>
-      <c r="B311" s="7"/>
+      <c r="A311" s="8"/>
+      <c r="B311" s="8"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="7"/>
-      <c r="B312" s="7"/>
+      <c r="A312" s="8"/>
+      <c r="B312" s="8"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="7"/>
-      <c r="B313" s="7"/>
+      <c r="A313" s="8"/>
+      <c r="B313" s="8"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="7"/>
-      <c r="B314" s="7"/>
+      <c r="A314" s="8"/>
+      <c r="B314" s="8"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="7"/>
-      <c r="B315" s="7"/>
+      <c r="A315" s="8"/>
+      <c r="B315" s="8"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="7"/>
-      <c r="B316" s="7"/>
+      <c r="A316" s="8"/>
+      <c r="B316" s="8"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="7"/>
-      <c r="B317" s="7"/>
+      <c r="A317" s="8"/>
+      <c r="B317" s="8"/>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="7"/>
-      <c r="B318" s="7"/>
+      <c r="A318" s="8"/>
+      <c r="B318" s="8"/>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="7"/>
-      <c r="B319" s="7"/>
+      <c r="A319" s="8"/>
+      <c r="B319" s="8"/>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="7"/>
-      <c r="B320" s="7"/>
+      <c r="A320" s="8"/>
+      <c r="B320" s="8"/>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="7"/>
-      <c r="B321" s="7"/>
+      <c r="A321" s="8"/>
+      <c r="B321" s="8"/>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="7"/>
-      <c r="B322" s="7"/>
+      <c r="A322" s="8"/>
+      <c r="B322" s="8"/>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="7"/>
-      <c r="B323" s="7"/>
+      <c r="A323" s="8"/>
+      <c r="B323" s="8"/>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="7"/>
-      <c r="B324" s="7"/>
+      <c r="A324" s="8"/>
+      <c r="B324" s="8"/>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="7"/>
-      <c r="B325" s="7"/>
+      <c r="A325" s="8"/>
+      <c r="B325" s="8"/>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="7"/>
-      <c r="B326" s="7"/>
+      <c r="A326" s="8"/>
+      <c r="B326" s="8"/>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="7"/>
-      <c r="B327" s="7"/>
+      <c r="A327" s="8"/>
+      <c r="B327" s="8"/>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="7"/>
-      <c r="B328" s="7"/>
+      <c r="A328" s="8"/>
+      <c r="B328" s="8"/>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="7"/>
-      <c r="B329" s="7"/>
+      <c r="A329" s="8"/>
+      <c r="B329" s="8"/>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="7"/>
-      <c r="B330" s="7"/>
+      <c r="A330" s="8"/>
+      <c r="B330" s="8"/>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="7"/>
-      <c r="B331" s="7"/>
+      <c r="A331" s="8"/>
+      <c r="B331" s="8"/>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="7"/>
-      <c r="B332" s="7"/>
+      <c r="A332" s="8"/>
+      <c r="B332" s="8"/>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="7"/>
-      <c r="B333" s="7"/>
+      <c r="A333" s="8"/>
+      <c r="B333" s="8"/>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="7"/>
-      <c r="B334" s="7"/>
+      <c r="A334" s="8"/>
+      <c r="B334" s="8"/>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="7"/>
-      <c r="B335" s="7"/>
+      <c r="A335" s="8"/>
+      <c r="B335" s="8"/>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="7"/>
-      <c r="B336" s="7"/>
+      <c r="A336" s="8"/>
+      <c r="B336" s="8"/>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="7"/>
-      <c r="B337" s="7"/>
+      <c r="A337" s="8"/>
+      <c r="B337" s="8"/>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="7"/>
-      <c r="B338" s="7"/>
+      <c r="A338" s="8"/>
+      <c r="B338" s="8"/>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="7"/>
-      <c r="B339" s="7"/>
+      <c r="A339" s="8"/>
+      <c r="B339" s="8"/>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="7"/>
-      <c r="B340" s="7"/>
+      <c r="A340" s="8"/>
+      <c r="B340" s="8"/>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="7"/>
-      <c r="B341" s="7"/>
+      <c r="A341" s="8"/>
+      <c r="B341" s="8"/>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="7"/>
-      <c r="B342" s="7"/>
+      <c r="A342" s="8"/>
+      <c r="B342" s="8"/>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="7"/>
-      <c r="B343" s="7"/>
+      <c r="A343" s="8"/>
+      <c r="B343" s="8"/>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="7"/>
-      <c r="B344" s="7"/>
+      <c r="A344" s="8"/>
+      <c r="B344" s="8"/>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="7"/>
-      <c r="B345" s="7"/>
+      <c r="A345" s="8"/>
+      <c r="B345" s="8"/>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="7"/>
-      <c r="B346" s="7"/>
+      <c r="A346" s="8"/>
+      <c r="B346" s="8"/>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="7"/>
-      <c r="B347" s="7"/>
+      <c r="A347" s="8"/>
+      <c r="B347" s="8"/>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="7"/>
-      <c r="B348" s="7"/>
+      <c r="A348" s="8"/>
+      <c r="B348" s="8"/>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="7"/>
-      <c r="B349" s="7"/>
+      <c r="A349" s="8"/>
+      <c r="B349" s="8"/>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="7"/>
-      <c r="B350" s="7"/>
+      <c r="A350" s="8"/>
+      <c r="B350" s="8"/>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="7"/>
-      <c r="B351" s="7"/>
+      <c r="A351" s="8"/>
+      <c r="B351" s="8"/>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="7"/>
-      <c r="B352" s="7"/>
+      <c r="A352" s="8"/>
+      <c r="B352" s="8"/>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="7"/>
-      <c r="B353" s="7"/>
+      <c r="A353" s="8"/>
+      <c r="B353" s="8"/>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="7"/>
-      <c r="B354" s="7"/>
+      <c r="A354" s="8"/>
+      <c r="B354" s="8"/>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="7"/>
-      <c r="B355" s="7"/>
+      <c r="A355" s="8"/>
+      <c r="B355" s="8"/>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="7"/>
-      <c r="B356" s="7"/>
+      <c r="A356" s="8"/>
+      <c r="B356" s="8"/>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="7"/>
-      <c r="B357" s="7"/>
+      <c r="A357" s="8"/>
+      <c r="B357" s="8"/>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="7"/>
-      <c r="B358" s="7"/>
+      <c r="A358" s="8"/>
+      <c r="B358" s="8"/>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="7"/>
-      <c r="B359" s="7"/>
+      <c r="A359" s="8"/>
+      <c r="B359" s="8"/>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="7"/>
-      <c r="B360" s="7"/>
+      <c r="A360" s="8"/>
+      <c r="B360" s="8"/>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="7"/>
-      <c r="B361" s="7"/>
+      <c r="A361" s="8"/>
+      <c r="B361" s="8"/>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="7"/>
-      <c r="B362" s="7"/>
+      <c r="A362" s="8"/>
+      <c r="B362" s="8"/>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="7"/>
-      <c r="B363" s="7"/>
+      <c r="A363" s="8"/>
+      <c r="B363" s="8"/>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="7"/>
-      <c r="B364" s="7"/>
+      <c r="A364" s="8"/>
+      <c r="B364" s="8"/>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="7"/>
-      <c r="B365" s="7"/>
+      <c r="A365" s="8"/>
+      <c r="B365" s="8"/>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="7"/>
-      <c r="B366" s="7"/>
+      <c r="A366" s="8"/>
+      <c r="B366" s="8"/>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="7"/>
-      <c r="B367" s="7"/>
+      <c r="A367" s="8"/>
+      <c r="B367" s="8"/>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="7"/>
-      <c r="B368" s="7"/>
+      <c r="A368" s="8"/>
+      <c r="B368" s="8"/>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="7"/>
-      <c r="B369" s="7"/>
+      <c r="A369" s="8"/>
+      <c r="B369" s="8"/>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="7"/>
-      <c r="B370" s="7"/>
+      <c r="A370" s="8"/>
+      <c r="B370" s="8"/>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="7"/>
-      <c r="B371" s="7"/>
+      <c r="A371" s="8"/>
+      <c r="B371" s="8"/>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="7"/>
-      <c r="B372" s="7"/>
+      <c r="A372" s="8"/>
+      <c r="B372" s="8"/>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="7"/>
-      <c r="B373" s="7"/>
+      <c r="A373" s="8"/>
+      <c r="B373" s="8"/>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="7"/>
-      <c r="B374" s="7"/>
+      <c r="A374" s="8"/>
+      <c r="B374" s="8"/>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="7"/>
-      <c r="B375" s="7"/>
+      <c r="A375" s="8"/>
+      <c r="B375" s="8"/>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="7"/>
-      <c r="B376" s="7"/>
+      <c r="A376" s="8"/>
+      <c r="B376" s="8"/>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="7"/>
-      <c r="B377" s="7"/>
+      <c r="A377" s="8"/>
+      <c r="B377" s="8"/>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="7"/>
-      <c r="B378" s="7"/>
+      <c r="A378" s="8"/>
+      <c r="B378" s="8"/>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="7"/>
-      <c r="B379" s="7"/>
+      <c r="A379" s="8"/>
+      <c r="B379" s="8"/>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="7"/>
-      <c r="B380" s="7"/>
+      <c r="A380" s="8"/>
+      <c r="B380" s="8"/>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="7"/>
-      <c r="B381" s="7"/>
+      <c r="A381" s="8"/>
+      <c r="B381" s="8"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="7"/>
-      <c r="B382" s="7"/>
+      <c r="A382" s="8"/>
+      <c r="B382" s="8"/>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="7"/>
-      <c r="B383" s="7"/>
+      <c r="A383" s="8"/>
+      <c r="B383" s="8"/>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="7"/>
-      <c r="B384" s="7"/>
+      <c r="A384" s="8"/>
+      <c r="B384" s="8"/>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="7"/>
-      <c r="B385" s="7"/>
+      <c r="A385" s="8"/>
+      <c r="B385" s="8"/>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="7"/>
-      <c r="B386" s="7"/>
+      <c r="A386" s="8"/>
+      <c r="B386" s="8"/>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="7"/>
-      <c r="B387" s="7"/>
+      <c r="A387" s="8"/>
+      <c r="B387" s="8"/>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="7"/>
-      <c r="B388" s="7"/>
+      <c r="A388" s="8"/>
+      <c r="B388" s="8"/>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="7"/>
-      <c r="B389" s="7"/>
+      <c r="A389" s="8"/>
+      <c r="B389" s="8"/>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="7"/>
-      <c r="B390" s="7"/>
+      <c r="A390" s="8"/>
+      <c r="B390" s="8"/>
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="7"/>
-      <c r="B391" s="7"/>
+      <c r="A391" s="8"/>
+      <c r="B391" s="8"/>
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="7"/>
-      <c r="B392" s="7"/>
+      <c r="A392" s="8"/>
+      <c r="B392" s="8"/>
     </row>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="7"/>
-      <c r="B393" s="7"/>
+      <c r="A393" s="8"/>
+      <c r="B393" s="8"/>
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="7"/>
-      <c r="B394" s="7"/>
+      <c r="A394" s="8"/>
+      <c r="B394" s="8"/>
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="7"/>
-      <c r="B395" s="7"/>
+      <c r="A395" s="8"/>
+      <c r="B395" s="8"/>
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="7"/>
-      <c r="B396" s="7"/>
+      <c r="A396" s="8"/>
+      <c r="B396" s="8"/>
     </row>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="7"/>
-      <c r="B397" s="7"/>
+      <c r="A397" s="8"/>
+      <c r="B397" s="8"/>
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="7"/>
-      <c r="B398" s="7"/>
+      <c r="A398" s="8"/>
+      <c r="B398" s="8"/>
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="7"/>
-      <c r="B399" s="7"/>
+      <c r="A399" s="8"/>
+      <c r="B399" s="8"/>
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="7"/>
-      <c r="B400" s="7"/>
+      <c r="A400" s="8"/>
+      <c r="B400" s="8"/>
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="7"/>
-      <c r="B401" s="7"/>
+      <c r="A401" s="8"/>
+      <c r="B401" s="8"/>
     </row>
     <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="7"/>
-      <c r="B402" s="7"/>
+      <c r="A402" s="8"/>
+      <c r="B402" s="8"/>
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="7"/>
-      <c r="B403" s="7"/>
+      <c r="A403" s="8"/>
+      <c r="B403" s="8"/>
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="7"/>
-      <c r="B404" s="7"/>
+      <c r="A404" s="8"/>
+      <c r="B404" s="8"/>
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="7"/>
-      <c r="B405" s="7"/>
+      <c r="A405" s="8"/>
+      <c r="B405" s="8"/>
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="7"/>
-      <c r="B406" s="7"/>
+      <c r="A406" s="8"/>
+      <c r="B406" s="8"/>
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="7"/>
-      <c r="B407" s="7"/>
+      <c r="A407" s="8"/>
+      <c r="B407" s="8"/>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="7"/>
-      <c r="B408" s="7"/>
+      <c r="A408" s="8"/>
+      <c r="B408" s="8"/>
     </row>
     <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="7"/>
-      <c r="B409" s="7"/>
+      <c r="A409" s="8"/>
+      <c r="B409" s="8"/>
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="7"/>
-      <c r="B410" s="7"/>
+      <c r="A410" s="8"/>
+      <c r="B410" s="8"/>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="7"/>
-      <c r="B411" s="7"/>
+      <c r="A411" s="8"/>
+      <c r="B411" s="8"/>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="7"/>
-      <c r="B412" s="7"/>
+      <c r="A412" s="8"/>
+      <c r="B412" s="8"/>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="7"/>
-      <c r="B413" s="7"/>
+      <c r="A413" s="8"/>
+      <c r="B413" s="8"/>
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="7"/>
-      <c r="B414" s="7"/>
+      <c r="A414" s="8"/>
+      <c r="B414" s="8"/>
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="7"/>
-      <c r="B415" s="7"/>
+      <c r="A415" s="8"/>
+      <c r="B415" s="8"/>
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="7"/>
-      <c r="B416" s="7"/>
+      <c r="A416" s="8"/>
+      <c r="B416" s="8"/>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="7"/>
-      <c r="B417" s="7"/>
+      <c r="A417" s="8"/>
+      <c r="B417" s="8"/>
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="7"/>
-      <c r="B418" s="7"/>
+      <c r="A418" s="8"/>
+      <c r="B418" s="8"/>
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="7"/>
-      <c r="B419" s="7"/>
+      <c r="A419" s="8"/>
+      <c r="B419" s="8"/>
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="7"/>
-      <c r="B420" s="7"/>
+      <c r="A420" s="8"/>
+      <c r="B420" s="8"/>
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="7"/>
-      <c r="B421" s="7"/>
+      <c r="A421" s="8"/>
+      <c r="B421" s="8"/>
     </row>
     <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="7"/>
-      <c r="B422" s="7"/>
+      <c r="A422" s="8"/>
+      <c r="B422" s="8"/>
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="7"/>
-      <c r="B423" s="7"/>
+      <c r="A423" s="8"/>
+      <c r="B423" s="8"/>
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="7"/>
-      <c r="B424" s="7"/>
+      <c r="A424" s="8"/>
+      <c r="B424" s="8"/>
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="7"/>
-      <c r="B425" s="7"/>
+      <c r="A425" s="8"/>
+      <c r="B425" s="8"/>
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="7"/>
-      <c r="B426" s="7"/>
+      <c r="A426" s="8"/>
+      <c r="B426" s="8"/>
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="7"/>
-      <c r="B427" s="7"/>
+      <c r="A427" s="8"/>
+      <c r="B427" s="8"/>
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="7"/>
-      <c r="B428" s="7"/>
+      <c r="A428" s="8"/>
+      <c r="B428" s="8"/>
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="7"/>
-      <c r="B429" s="7"/>
+      <c r="A429" s="8"/>
+      <c r="B429" s="8"/>
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="7"/>
-      <c r="B430" s="7"/>
+      <c r="A430" s="8"/>
+      <c r="B430" s="8"/>
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="7"/>
-      <c r="B431" s="7"/>
+      <c r="A431" s="8"/>
+      <c r="B431" s="8"/>
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="7"/>
-      <c r="B432" s="7"/>
+      <c r="A432" s="8"/>
+      <c r="B432" s="8"/>
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="7"/>
-      <c r="B433" s="7"/>
+      <c r="A433" s="8"/>
+      <c r="B433" s="8"/>
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="7"/>
-      <c r="B434" s="7"/>
+      <c r="A434" s="8"/>
+      <c r="B434" s="8"/>
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="7"/>
-      <c r="B435" s="7"/>
+      <c r="A435" s="8"/>
+      <c r="B435" s="8"/>
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="7"/>
-      <c r="B436" s="7"/>
+      <c r="A436" s="8"/>
+      <c r="B436" s="8"/>
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="7"/>
-      <c r="B437" s="7"/>
+      <c r="A437" s="8"/>
+      <c r="B437" s="8"/>
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="7"/>
-      <c r="B438" s="7"/>
+      <c r="A438" s="8"/>
+      <c r="B438" s="8"/>
     </row>
     <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="7"/>
-      <c r="B439" s="7"/>
+      <c r="A439" s="8"/>
+      <c r="B439" s="8"/>
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="7"/>
-      <c r="B440" s="7"/>
+      <c r="A440" s="8"/>
+      <c r="B440" s="8"/>
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="7"/>
-      <c r="B441" s="7"/>
+      <c r="A441" s="8"/>
+      <c r="B441" s="8"/>
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="7"/>
-      <c r="B442" s="7"/>
+      <c r="A442" s="8"/>
+      <c r="B442" s="8"/>
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="7"/>
-      <c r="B443" s="7"/>
+      <c r="A443" s="8"/>
+      <c r="B443" s="8"/>
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="7"/>
-      <c r="B444" s="7"/>
+      <c r="A444" s="8"/>
+      <c r="B444" s="8"/>
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="7"/>
-      <c r="B445" s="7"/>
+      <c r="A445" s="8"/>
+      <c r="B445" s="8"/>
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="7"/>
-      <c r="B446" s="7"/>
+      <c r="A446" s="8"/>
+      <c r="B446" s="8"/>
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="7"/>
-      <c r="B447" s="7"/>
+      <c r="A447" s="8"/>
+      <c r="B447" s="8"/>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="7"/>
-      <c r="B448" s="7"/>
+      <c r="A448" s="8"/>
+      <c r="B448" s="8"/>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="7"/>
-      <c r="B449" s="7"/>
+      <c r="A449" s="8"/>
+      <c r="B449" s="8"/>
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="7"/>
-      <c r="B450" s="7"/>
+      <c r="A450" s="8"/>
+      <c r="B450" s="8"/>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="7"/>
-      <c r="B451" s="7"/>
+      <c r="A451" s="8"/>
+      <c r="B451" s="8"/>
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="7"/>
-      <c r="B452" s="7"/>
+      <c r="A452" s="8"/>
+      <c r="B452" s="8"/>
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="7"/>
-      <c r="B453" s="7"/>
+      <c r="A453" s="8"/>
+      <c r="B453" s="8"/>
     </row>
     <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="7"/>
-      <c r="B454" s="7"/>
+      <c r="A454" s="8"/>
+      <c r="B454" s="8"/>
     </row>
     <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="7"/>
-      <c r="B455" s="7"/>
+      <c r="A455" s="8"/>
+      <c r="B455" s="8"/>
     </row>
     <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="7"/>
-      <c r="B456" s="7"/>
+      <c r="A456" s="8"/>
+      <c r="B456" s="8"/>
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="7"/>
-      <c r="B457" s="7"/>
+      <c r="A457" s="8"/>
+      <c r="B457" s="8"/>
     </row>
     <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="7"/>
-      <c r="B458" s="7"/>
+      <c r="A458" s="8"/>
+      <c r="B458" s="8"/>
     </row>
     <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="7"/>
-      <c r="B459" s="7"/>
+      <c r="A459" s="8"/>
+      <c r="B459" s="8"/>
     </row>
     <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="7"/>
-      <c r="B460" s="7"/>
+      <c r="A460" s="8"/>
+      <c r="B460" s="8"/>
     </row>
     <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="7"/>
-      <c r="B461" s="7"/>
+      <c r="A461" s="8"/>
+      <c r="B461" s="8"/>
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="7"/>
-      <c r="B462" s="7"/>
+      <c r="A462" s="8"/>
+      <c r="B462" s="8"/>
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="7"/>
-      <c r="B463" s="7"/>
+      <c r="A463" s="8"/>
+      <c r="B463" s="8"/>
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="7"/>
-      <c r="B464" s="7"/>
+      <c r="A464" s="8"/>
+      <c r="B464" s="8"/>
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="7"/>
-      <c r="B465" s="7"/>
+      <c r="A465" s="8"/>
+      <c r="B465" s="8"/>
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="7"/>
-      <c r="B466" s="7"/>
+      <c r="A466" s="8"/>
+      <c r="B466" s="8"/>
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="7"/>
-      <c r="B467" s="7"/>
+      <c r="A467" s="8"/>
+      <c r="B467" s="8"/>
     </row>
     <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="7"/>
-      <c r="B468" s="7"/>
+      <c r="A468" s="8"/>
+      <c r="B468" s="8"/>
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="7"/>
-      <c r="B469" s="7"/>
+      <c r="A469" s="8"/>
+      <c r="B469" s="8"/>
     </row>
     <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="7"/>
-      <c r="B470" s="7"/>
+      <c r="A470" s="8"/>
+      <c r="B470" s="8"/>
     </row>
     <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="7"/>
-      <c r="B471" s="7"/>
+      <c r="A471" s="8"/>
+      <c r="B471" s="8"/>
     </row>
     <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="7"/>
-      <c r="B472" s="7"/>
+      <c r="A472" s="8"/>
+      <c r="B472" s="8"/>
     </row>
     <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="7"/>
-      <c r="B473" s="7"/>
+      <c r="A473" s="8"/>
+      <c r="B473" s="8"/>
     </row>
     <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="7"/>
-      <c r="B474" s="7"/>
+      <c r="A474" s="8"/>
+      <c r="B474" s="8"/>
     </row>
     <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="7"/>
-      <c r="B475" s="7"/>
+      <c r="A475" s="8"/>
+      <c r="B475" s="8"/>
     </row>
     <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="7"/>
-      <c r="B476" s="7"/>
+      <c r="A476" s="8"/>
+      <c r="B476" s="8"/>
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="7"/>
-      <c r="B477" s="7"/>
+      <c r="A477" s="8"/>
+      <c r="B477" s="8"/>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="7"/>
-      <c r="B478" s="7"/>
+      <c r="A478" s="8"/>
+      <c r="B478" s="8"/>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="7"/>
-      <c r="B479" s="7"/>
+      <c r="A479" s="8"/>
+      <c r="B479" s="8"/>
     </row>
     <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="7"/>
-      <c r="B480" s="7"/>
+      <c r="A480" s="8"/>
+      <c r="B480" s="8"/>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="7"/>
-      <c r="B481" s="7"/>
+      <c r="A481" s="8"/>
+      <c r="B481" s="8"/>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="7"/>
-      <c r="B482" s="7"/>
+      <c r="A482" s="8"/>
+      <c r="B482" s="8"/>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="7"/>
-      <c r="B483" s="7"/>
+      <c r="A483" s="8"/>
+      <c r="B483" s="8"/>
     </row>
     <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="7"/>
-      <c r="B484" s="7"/>
+      <c r="A484" s="8"/>
+      <c r="B484" s="8"/>
     </row>
     <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="7"/>
-      <c r="B485" s="7"/>
+      <c r="A485" s="8"/>
+      <c r="B485" s="8"/>
     </row>
     <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="7"/>
-      <c r="B486" s="7"/>
+      <c r="A486" s="8"/>
+      <c r="B486" s="8"/>
     </row>
     <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="7"/>
-      <c r="B487" s="7"/>
+      <c r="A487" s="8"/>
+      <c r="B487" s="8"/>
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="7"/>
-      <c r="B488" s="7"/>
+      <c r="A488" s="8"/>
+      <c r="B488" s="8"/>
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="7"/>
-      <c r="B489" s="7"/>
+      <c r="A489" s="8"/>
+      <c r="B489" s="8"/>
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="7"/>
-      <c r="B490" s="7"/>
+      <c r="A490" s="8"/>
+      <c r="B490" s="8"/>
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="7"/>
-      <c r="B491" s="7"/>
+      <c r="A491" s="8"/>
+      <c r="B491" s="8"/>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="7"/>
-      <c r="B492" s="7"/>
+      <c r="A492" s="8"/>
+      <c r="B492" s="8"/>
     </row>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="7"/>
-      <c r="B493" s="7"/>
+      <c r="A493" s="8"/>
+      <c r="B493" s="8"/>
     </row>
     <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="7"/>
-      <c r="B494" s="7"/>
+      <c r="A494" s="8"/>
+      <c r="B494" s="8"/>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="7"/>
-      <c r="B495" s="7"/>
+      <c r="A495" s="8"/>
+      <c r="B495" s="8"/>
     </row>
     <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="7"/>
-      <c r="B496" s="7"/>
+      <c r="A496" s="8"/>
+      <c r="B496" s="8"/>
     </row>
     <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="7"/>
-      <c r="B497" s="7"/>
+      <c r="A497" s="8"/>
+      <c r="B497" s="8"/>
     </row>
     <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="7"/>
-      <c r="B498" s="7"/>
+      <c r="A498" s="8"/>
+      <c r="B498" s="8"/>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="7"/>
-      <c r="B499" s="7"/>
+      <c r="A499" s="8"/>
+      <c r="B499" s="8"/>
     </row>
     <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="7"/>
-      <c r="B500" s="7"/>
+      <c r="A500" s="8"/>
+      <c r="B500" s="8"/>
     </row>
     <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="7"/>
-      <c r="B501" s="7"/>
+      <c r="A501" s="8"/>
+      <c r="B501" s="8"/>
     </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="7"/>
-      <c r="B502" s="7"/>
+      <c r="A502" s="8"/>
+      <c r="B502" s="8"/>
     </row>
     <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="7"/>
-      <c r="B503" s="7"/>
+      <c r="A503" s="8"/>
+      <c r="B503" s="8"/>
     </row>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="7"/>
-      <c r="B504" s="7"/>
+      <c r="A504" s="8"/>
+      <c r="B504" s="8"/>
     </row>
     <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="7"/>
-      <c r="B505" s="7"/>
+      <c r="A505" s="8"/>
+      <c r="B505" s="8"/>
     </row>
     <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="7"/>
-      <c r="B506" s="7"/>
+      <c r="A506" s="8"/>
+      <c r="B506" s="8"/>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="7"/>
-      <c r="B507" s="7"/>
+      <c r="A507" s="8"/>
+      <c r="B507" s="8"/>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="7"/>
-      <c r="B508" s="7"/>
+      <c r="A508" s="8"/>
+      <c r="B508" s="8"/>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="7"/>
-      <c r="B509" s="7"/>
+      <c r="A509" s="8"/>
+      <c r="B509" s="8"/>
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="7"/>
-      <c r="B510" s="7"/>
+      <c r="A510" s="8"/>
+      <c r="B510" s="8"/>
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="7"/>
-      <c r="B511" s="7"/>
+      <c r="A511" s="8"/>
+      <c r="B511" s="8"/>
     </row>
     <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="7"/>
-      <c r="B512" s="7"/>
+      <c r="A512" s="8"/>
+      <c r="B512" s="8"/>
     </row>
     <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="7"/>
-      <c r="B513" s="7"/>
+      <c r="A513" s="8"/>
+      <c r="B513" s="8"/>
     </row>
     <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="7"/>
-      <c r="B514" s="7"/>
+      <c r="A514" s="8"/>
+      <c r="B514" s="8"/>
     </row>
     <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="7"/>
-      <c r="B515" s="7"/>
+      <c r="A515" s="8"/>
+      <c r="B515" s="8"/>
     </row>
     <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="7"/>
-      <c r="B516" s="7"/>
+      <c r="A516" s="8"/>
+      <c r="B516" s="8"/>
     </row>
     <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="7"/>
-      <c r="B517" s="7"/>
+      <c r="A517" s="8"/>
+      <c r="B517" s="8"/>
     </row>
     <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="7"/>
-      <c r="B518" s="7"/>
+      <c r="A518" s="8"/>
+      <c r="B518" s="8"/>
     </row>
     <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="7"/>
-      <c r="B519" s="7"/>
+      <c r="A519" s="8"/>
+      <c r="B519" s="8"/>
     </row>
     <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="7"/>
-      <c r="B520" s="7"/>
+      <c r="A520" s="8"/>
+      <c r="B520" s="8"/>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="7"/>
-      <c r="B521" s="7"/>
+      <c r="A521" s="8"/>
+      <c r="B521" s="8"/>
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A522" s="7"/>
-      <c r="B522" s="7"/>
+      <c r="A522" s="8"/>
+      <c r="B522" s="8"/>
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="7"/>
-      <c r="B523" s="7"/>
+      <c r="A523" s="8"/>
+      <c r="B523" s="8"/>
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="7"/>
-      <c r="B524" s="7"/>
+      <c r="A524" s="8"/>
+      <c r="B524" s="8"/>
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="7"/>
-      <c r="B525" s="7"/>
+      <c r="A525" s="8"/>
+      <c r="B525" s="8"/>
     </row>
     <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="7"/>
-      <c r="B526" s="7"/>
+      <c r="A526" s="8"/>
+      <c r="B526" s="8"/>
     </row>
     <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="7"/>
-      <c r="B527" s="7"/>
+      <c r="A527" s="8"/>
+      <c r="B527" s="8"/>
     </row>
     <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A528" s="7"/>
-      <c r="B528" s="7"/>
+      <c r="A528" s="8"/>
+      <c r="B528" s="8"/>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="7"/>
-      <c r="B529" s="7"/>
+      <c r="A529" s="8"/>
+      <c r="B529" s="8"/>
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A530" s="7"/>
-      <c r="B530" s="7"/>
+      <c r="A530" s="8"/>
+      <c r="B530" s="8"/>
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="7"/>
-      <c r="B531" s="7"/>
+      <c r="A531" s="8"/>
+      <c r="B531" s="8"/>
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="7"/>
-      <c r="B532" s="7"/>
+      <c r="A532" s="8"/>
+      <c r="B532" s="8"/>
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="7"/>
-      <c r="B533" s="7"/>
+      <c r="A533" s="8"/>
+      <c r="B533" s="8"/>
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="7"/>
-      <c r="B534" s="7"/>
+      <c r="A534" s="8"/>
+      <c r="B534" s="8"/>
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A535" s="7"/>
-      <c r="B535" s="7"/>
+      <c r="A535" s="8"/>
+      <c r="B535" s="8"/>
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A536" s="7"/>
-      <c r="B536" s="7"/>
+      <c r="A536" s="8"/>
+      <c r="B536" s="8"/>
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="7"/>
-      <c r="B537" s="7"/>
+      <c r="A537" s="8"/>
+      <c r="B537" s="8"/>
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A538" s="7"/>
-      <c r="B538" s="7"/>
+      <c r="A538" s="8"/>
+      <c r="B538" s="8"/>
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A539" s="7"/>
-      <c r="B539" s="7"/>
+      <c r="A539" s="8"/>
+      <c r="B539" s="8"/>
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A540" s="7"/>
-      <c r="B540" s="7"/>
+      <c r="A540" s="8"/>
+      <c r="B540" s="8"/>
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A541" s="7"/>
-      <c r="B541" s="7"/>
+      <c r="A541" s="8"/>
+      <c r="B541" s="8"/>
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A542" s="7"/>
-      <c r="B542" s="7"/>
+      <c r="A542" s="8"/>
+      <c r="B542" s="8"/>
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A543" s="7"/>
-      <c r="B543" s="7"/>
+      <c r="A543" s="8"/>
+      <c r="B543" s="8"/>
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A544" s="7"/>
-      <c r="B544" s="7"/>
+      <c r="A544" s="8"/>
+      <c r="B544" s="8"/>
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="7"/>
-      <c r="B545" s="7"/>
+      <c r="A545" s="8"/>
+      <c r="B545" s="8"/>
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A546" s="7"/>
-      <c r="B546" s="7"/>
+      <c r="A546" s="8"/>
+      <c r="B546" s="8"/>
     </row>
     <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="7"/>
-      <c r="B547" s="7"/>
+      <c r="A547" s="8"/>
+      <c r="B547" s="8"/>
     </row>
     <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="7"/>
-      <c r="B548" s="7"/>
+      <c r="A548" s="8"/>
+      <c r="B548" s="8"/>
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A549" s="7"/>
-      <c r="B549" s="7"/>
+      <c r="A549" s="8"/>
+      <c r="B549" s="8"/>
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A550" s="7"/>
-      <c r="B550" s="7"/>
+      <c r="A550" s="8"/>
+      <c r="B550" s="8"/>
     </row>
     <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A551" s="7"/>
-      <c r="B551" s="7"/>
+      <c r="A551" s="8"/>
+      <c r="B551" s="8"/>
     </row>
     <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A552" s="7"/>
-      <c r="B552" s="7"/>
+      <c r="A552" s="8"/>
+      <c r="B552" s="8"/>
     </row>
     <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A553" s="7"/>
-      <c r="B553" s="7"/>
+      <c r="A553" s="8"/>
+      <c r="B553" s="8"/>
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A554" s="7"/>
-      <c r="B554" s="7"/>
+      <c r="A554" s="8"/>
+      <c r="B554" s="8"/>
     </row>
     <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="7"/>
-      <c r="B555" s="7"/>
+      <c r="A555" s="8"/>
+      <c r="B555" s="8"/>
     </row>
     <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="7"/>
-      <c r="B556" s="7"/>
+      <c r="A556" s="8"/>
+      <c r="B556" s="8"/>
     </row>
     <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="7"/>
-      <c r="B557" s="7"/>
+      <c r="A557" s="8"/>
+      <c r="B557" s="8"/>
     </row>
     <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="7"/>
-      <c r="B558" s="7"/>
+      <c r="A558" s="8"/>
+      <c r="B558" s="8"/>
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="7"/>
-      <c r="B559" s="7"/>
+      <c r="A559" s="8"/>
+      <c r="B559" s="8"/>
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A560" s="7"/>
-      <c r="B560" s="7"/>
+      <c r="A560" s="8"/>
+      <c r="B560" s="8"/>
     </row>
     <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="7"/>
-      <c r="B561" s="7"/>
+      <c r="A561" s="8"/>
+      <c r="B561" s="8"/>
     </row>
     <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="7"/>
-      <c r="B562" s="7"/>
+      <c r="A562" s="8"/>
+      <c r="B562" s="8"/>
     </row>
     <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A563" s="7"/>
-      <c r="B563" s="7"/>
+      <c r="A563" s="8"/>
+      <c r="B563" s="8"/>
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="7"/>
-      <c r="B564" s="7"/>
+      <c r="A564" s="8"/>
+      <c r="B564" s="8"/>
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="7"/>
-      <c r="B565" s="7"/>
+      <c r="A565" s="8"/>
+      <c r="B565" s="8"/>
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="7"/>
-      <c r="B566" s="7"/>
+      <c r="A566" s="8"/>
+      <c r="B566" s="8"/>
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="7"/>
-      <c r="B567" s="7"/>
+      <c r="A567" s="8"/>
+      <c r="B567" s="8"/>
     </row>
     <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="7"/>
-      <c r="B568" s="7"/>
+      <c r="A568" s="8"/>
+      <c r="B568" s="8"/>
     </row>
     <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="7"/>
-      <c r="B569" s="7"/>
+      <c r="A569" s="8"/>
+      <c r="B569" s="8"/>
     </row>
     <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A570" s="7"/>
-      <c r="B570" s="7"/>
+      <c r="A570" s="8"/>
+      <c r="B570" s="8"/>
     </row>
     <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A571" s="7"/>
-      <c r="B571" s="7"/>
+      <c r="A571" s="8"/>
+      <c r="B571" s="8"/>
     </row>
     <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A572" s="7"/>
-      <c r="B572" s="7"/>
+      <c r="A572" s="8"/>
+      <c r="B572" s="8"/>
     </row>
     <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="7"/>
-      <c r="B573" s="7"/>
+      <c r="A573" s="8"/>
+      <c r="B573" s="8"/>
     </row>
     <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A574" s="7"/>
-      <c r="B574" s="7"/>
+      <c r="A574" s="8"/>
+      <c r="B574" s="8"/>
     </row>
     <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A575" s="7"/>
-      <c r="B575" s="7"/>
+      <c r="A575" s="8"/>
+      <c r="B575" s="8"/>
     </row>
     <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A576" s="7"/>
-      <c r="B576" s="7"/>
+      <c r="A576" s="8"/>
+      <c r="B576" s="8"/>
     </row>
     <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A577" s="7"/>
-      <c r="B577" s="7"/>
+      <c r="A577" s="8"/>
+      <c r="B577" s="8"/>
     </row>
     <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A578" s="7"/>
-      <c r="B578" s="7"/>
+      <c r="A578" s="8"/>
+      <c r="B578" s="8"/>
     </row>
     <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="7"/>
-      <c r="B579" s="7"/>
+      <c r="A579" s="8"/>
+      <c r="B579" s="8"/>
     </row>
     <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="7"/>
-      <c r="B580" s="7"/>
+      <c r="A580" s="8"/>
+      <c r="B580" s="8"/>
     </row>
     <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="7"/>
-      <c r="B581" s="7"/>
+      <c r="A581" s="8"/>
+      <c r="B581" s="8"/>
     </row>
     <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="7"/>
-      <c r="B582" s="7"/>
+      <c r="A582" s="8"/>
+      <c r="B582" s="8"/>
     </row>
     <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="7"/>
-      <c r="B583" s="7"/>
+      <c r="A583" s="8"/>
+      <c r="B583" s="8"/>
     </row>
     <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="7"/>
-      <c r="B584" s="7"/>
+      <c r="A584" s="8"/>
+      <c r="B584" s="8"/>
     </row>
     <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="7"/>
-      <c r="B585" s="7"/>
+      <c r="A585" s="8"/>
+      <c r="B585" s="8"/>
     </row>
     <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A586" s="7"/>
-      <c r="B586" s="7"/>
+      <c r="A586" s="8"/>
+      <c r="B586" s="8"/>
     </row>
     <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="7"/>
-      <c r="B587" s="7"/>
+      <c r="A587" s="8"/>
+      <c r="B587" s="8"/>
     </row>
     <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A588" s="7"/>
-      <c r="B588" s="7"/>
+      <c r="A588" s="8"/>
+      <c r="B588" s="8"/>
     </row>
     <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A589" s="7"/>
-      <c r="B589" s="7"/>
+      <c r="A589" s="8"/>
+      <c r="B589" s="8"/>
     </row>
     <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A590" s="7"/>
-      <c r="B590" s="7"/>
+      <c r="A590" s="8"/>
+      <c r="B590" s="8"/>
     </row>
     <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A591" s="7"/>
-      <c r="B591" s="7"/>
+      <c r="A591" s="8"/>
+      <c r="B591" s="8"/>
     </row>
     <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A592" s="7"/>
-      <c r="B592" s="7"/>
+      <c r="A592" s="8"/>
+      <c r="B592" s="8"/>
     </row>
     <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A593" s="7"/>
-      <c r="B593" s="7"/>
+      <c r="A593" s="8"/>
+      <c r="B593" s="8"/>
     </row>
     <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A594" s="7"/>
-      <c r="B594" s="7"/>
+      <c r="A594" s="8"/>
+      <c r="B594" s="8"/>
     </row>
     <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A595" s="7"/>
-      <c r="B595" s="7"/>
+      <c r="A595" s="8"/>
+      <c r="B595" s="8"/>
     </row>
     <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A596" s="7"/>
-      <c r="B596" s="7"/>
+      <c r="A596" s="8"/>
+      <c r="B596" s="8"/>
     </row>
     <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A597" s="7"/>
-      <c r="B597" s="7"/>
+      <c r="A597" s="8"/>
+      <c r="B597" s="8"/>
     </row>
     <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A598" s="7"/>
-      <c r="B598" s="7"/>
+      <c r="A598" s="8"/>
+      <c r="B598" s="8"/>
     </row>
     <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A599" s="7"/>
-      <c r="B599" s="7"/>
+      <c r="A599" s="8"/>
+      <c r="B599" s="8"/>
     </row>
     <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A600" s="7"/>
-      <c r="B600" s="7"/>
+      <c r="A600" s="8"/>
+      <c r="B600" s="8"/>
     </row>
     <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A601" s="7"/>
-      <c r="B601" s="7"/>
+      <c r="A601" s="8"/>
+      <c r="B601" s="8"/>
     </row>
     <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A602" s="7"/>
-      <c r="B602" s="7"/>
+      <c r="A602" s="8"/>
+      <c r="B602" s="8"/>
     </row>
     <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="7"/>
-      <c r="B603" s="7"/>
+      <c r="A603" s="8"/>
+      <c r="B603" s="8"/>
     </row>
     <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A604" s="7"/>
-      <c r="B604" s="7"/>
+      <c r="A604" s="8"/>
+      <c r="B604" s="8"/>
     </row>
     <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A605" s="7"/>
-      <c r="B605" s="7"/>
+      <c r="A605" s="8"/>
+      <c r="B605" s="8"/>
     </row>
     <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A606" s="7"/>
-      <c r="B606" s="7"/>
+      <c r="A606" s="8"/>
+      <c r="B606" s="8"/>
     </row>
     <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="7"/>
-      <c r="B607" s="7"/>
+      <c r="A607" s="8"/>
+      <c r="B607" s="8"/>
     </row>
     <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="7"/>
-      <c r="B608" s="7"/>
+      <c r="A608" s="8"/>
+      <c r="B608" s="8"/>
     </row>
     <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="7"/>
-      <c r="B609" s="7"/>
+      <c r="A609" s="8"/>
+      <c r="B609" s="8"/>
     </row>
     <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="7"/>
-      <c r="B610" s="7"/>
+      <c r="A610" s="8"/>
+      <c r="B610" s="8"/>
     </row>
     <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="7"/>
-      <c r="B611" s="7"/>
+      <c r="A611" s="8"/>
+      <c r="B611" s="8"/>
     </row>
     <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A612" s="7"/>
-      <c r="B612" s="7"/>
+      <c r="A612" s="8"/>
+      <c r="B612" s="8"/>
     </row>
     <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A613" s="7"/>
-      <c r="B613" s="7"/>
+      <c r="A613" s="8"/>
+      <c r="B613" s="8"/>
     </row>
     <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A614" s="7"/>
-      <c r="B614" s="7"/>
+      <c r="A614" s="8"/>
+      <c r="B614" s="8"/>
     </row>
     <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A615" s="7"/>
-      <c r="B615" s="7"/>
+      <c r="A615" s="8"/>
+      <c r="B615" s="8"/>
     </row>
     <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A616" s="7"/>
-      <c r="B616" s="7"/>
+      <c r="A616" s="8"/>
+      <c r="B616" s="8"/>
     </row>
     <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A617" s="7"/>
-      <c r="B617" s="7"/>
+      <c r="A617" s="8"/>
+      <c r="B617" s="8"/>
     </row>
     <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A618" s="7"/>
-      <c r="B618" s="7"/>
+      <c r="A618" s="8"/>
+      <c r="B618" s="8"/>
     </row>
     <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="7"/>
-      <c r="B619" s="7"/>
+      <c r="A619" s="8"/>
+      <c r="B619" s="8"/>
     </row>
     <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A620" s="7"/>
-      <c r="B620" s="7"/>
+      <c r="A620" s="8"/>
+      <c r="B620" s="8"/>
     </row>
     <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A621" s="7"/>
-      <c r="B621" s="7"/>
+      <c r="A621" s="8"/>
+      <c r="B621" s="8"/>
     </row>
     <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A622" s="7"/>
-      <c r="B622" s="7"/>
+      <c r="A622" s="8"/>
+      <c r="B622" s="8"/>
     </row>
     <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A623" s="7"/>
-      <c r="B623" s="7"/>
+      <c r="A623" s="8"/>
+      <c r="B623" s="8"/>
     </row>
     <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="7"/>
-      <c r="B624" s="7"/>
+      <c r="A624" s="8"/>
+      <c r="B624" s="8"/>
     </row>
     <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="7"/>
-      <c r="B625" s="7"/>
+      <c r="A625" s="8"/>
+      <c r="B625" s="8"/>
     </row>
     <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="7"/>
-      <c r="B626" s="7"/>
+      <c r="A626" s="8"/>
+      <c r="B626" s="8"/>
     </row>
     <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="7"/>
-      <c r="B627" s="7"/>
+      <c r="A627" s="8"/>
+      <c r="B627" s="8"/>
     </row>
     <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="7"/>
-      <c r="B628" s="7"/>
+      <c r="A628" s="8"/>
+      <c r="B628" s="8"/>
     </row>
     <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="7"/>
-      <c r="B629" s="7"/>
+      <c r="A629" s="8"/>
+      <c r="B629" s="8"/>
     </row>
     <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="7"/>
-      <c r="B630" s="7"/>
+      <c r="A630" s="8"/>
+      <c r="B630" s="8"/>
     </row>
     <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="7"/>
-      <c r="B631" s="7"/>
+      <c r="A631" s="8"/>
+      <c r="B631" s="8"/>
     </row>
     <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A632" s="7"/>
-      <c r="B632" s="7"/>
+      <c r="A632" s="8"/>
+      <c r="B632" s="8"/>
     </row>
     <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="7"/>
-      <c r="B633" s="7"/>
+      <c r="A633" s="8"/>
+      <c r="B633" s="8"/>
     </row>
     <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="7"/>
-      <c r="B634" s="7"/>
+      <c r="A634" s="8"/>
+      <c r="B634" s="8"/>
     </row>
     <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A635" s="7"/>
-      <c r="B635" s="7"/>
+      <c r="A635" s="8"/>
+      <c r="B635" s="8"/>
     </row>
     <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A636" s="7"/>
-      <c r="B636" s="7"/>
+      <c r="A636" s="8"/>
+      <c r="B636" s="8"/>
     </row>
     <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A637" s="7"/>
-      <c r="B637" s="7"/>
+      <c r="A637" s="8"/>
+      <c r="B637" s="8"/>
     </row>
     <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="7"/>
-      <c r="B638" s="7"/>
+      <c r="A638" s="8"/>
+      <c r="B638" s="8"/>
     </row>
     <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A639" s="7"/>
-      <c r="B639" s="7"/>
+      <c r="A639" s="8"/>
+      <c r="B639" s="8"/>
     </row>
     <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A640" s="7"/>
-      <c r="B640" s="7"/>
+      <c r="A640" s="8"/>
+      <c r="B640" s="8"/>
     </row>
     <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A641" s="7"/>
-      <c r="B641" s="7"/>
+      <c r="A641" s="8"/>
+      <c r="B641" s="8"/>
     </row>
     <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A642" s="7"/>
-      <c r="B642" s="7"/>
+      <c r="A642" s="8"/>
+      <c r="B642" s="8"/>
     </row>
     <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A643" s="7"/>
-      <c r="B643" s="7"/>
+      <c r="A643" s="8"/>
+      <c r="B643" s="8"/>
     </row>
     <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A644" s="7"/>
-      <c r="B644" s="7"/>
+      <c r="A644" s="8"/>
+      <c r="B644" s="8"/>
     </row>
     <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="7"/>
-      <c r="B645" s="7"/>
+      <c r="A645" s="8"/>
+      <c r="B645" s="8"/>
     </row>
     <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="7"/>
-      <c r="B646" s="7"/>
+      <c r="A646" s="8"/>
+      <c r="B646" s="8"/>
     </row>
     <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="7"/>
-      <c r="B647" s="7"/>
+      <c r="A647" s="8"/>
+      <c r="B647" s="8"/>
     </row>
     <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="7"/>
-      <c r="B648" s="7"/>
+      <c r="A648" s="8"/>
+      <c r="B648" s="8"/>
     </row>
     <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="7"/>
-      <c r="B649" s="7"/>
+      <c r="A649" s="8"/>
+      <c r="B649" s="8"/>
     </row>
     <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="7"/>
-      <c r="B650" s="7"/>
+      <c r="A650" s="8"/>
+      <c r="B650" s="8"/>
     </row>
     <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="7"/>
-      <c r="B651" s="7"/>
+      <c r="A651" s="8"/>
+      <c r="B651" s="8"/>
     </row>
     <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="7"/>
-      <c r="B652" s="7"/>
+      <c r="A652" s="8"/>
+      <c r="B652" s="8"/>
     </row>
     <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="7"/>
-      <c r="B653" s="7"/>
+      <c r="A653" s="8"/>
+      <c r="B653" s="8"/>
     </row>
     <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="7"/>
-      <c r="B654" s="7"/>
+      <c r="A654" s="8"/>
+      <c r="B654" s="8"/>
     </row>
     <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="7"/>
-      <c r="B655" s="7"/>
+      <c r="A655" s="8"/>
+      <c r="B655" s="8"/>
     </row>
     <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A656" s="7"/>
-      <c r="B656" s="7"/>
+      <c r="A656" s="8"/>
+      <c r="B656" s="8"/>
     </row>
     <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A657" s="7"/>
-      <c r="B657" s="7"/>
+      <c r="A657" s="8"/>
+      <c r="B657" s="8"/>
     </row>
     <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A658" s="7"/>
-      <c r="B658" s="7"/>
+      <c r="A658" s="8"/>
+      <c r="B658" s="8"/>
     </row>
     <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A659" s="7"/>
-      <c r="B659" s="7"/>
+      <c r="A659" s="8"/>
+      <c r="B659" s="8"/>
     </row>
     <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="7"/>
-      <c r="B660" s="7"/>
+      <c r="A660" s="8"/>
+      <c r="B660" s="8"/>
     </row>
     <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A661" s="7"/>
-      <c r="B661" s="7"/>
+      <c r="A661" s="8"/>
+      <c r="B661" s="8"/>
     </row>
     <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A662" s="7"/>
-      <c r="B662" s="7"/>
+      <c r="A662" s="8"/>
+      <c r="B662" s="8"/>
     </row>
     <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A663" s="7"/>
-      <c r="B663" s="7"/>
+      <c r="A663" s="8"/>
+      <c r="B663" s="8"/>
     </row>
     <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A664" s="7"/>
-      <c r="B664" s="7"/>
+      <c r="A664" s="8"/>
+      <c r="B664" s="8"/>
     </row>
     <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A665" s="7"/>
-      <c r="B665" s="7"/>
+      <c r="A665" s="8"/>
+      <c r="B665" s="8"/>
     </row>
     <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A666" s="7"/>
-      <c r="B666" s="7"/>
+      <c r="A666" s="8"/>
+      <c r="B666" s="8"/>
     </row>
     <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A667" s="7"/>
-      <c r="B667" s="7"/>
+      <c r="A667" s="8"/>
+      <c r="B667" s="8"/>
     </row>
     <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A668" s="7"/>
-      <c r="B668" s="7"/>
+      <c r="A668" s="8"/>
+      <c r="B668" s="8"/>
     </row>
     <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A669" s="7"/>
-      <c r="B669" s="7"/>
+      <c r="A669" s="8"/>
+      <c r="B669" s="8"/>
     </row>
     <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A670" s="7"/>
-      <c r="B670" s="7"/>
+      <c r="A670" s="8"/>
+      <c r="B670" s="8"/>
     </row>
     <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A671" s="7"/>
-      <c r="B671" s="7"/>
+      <c r="A671" s="8"/>
+      <c r="B671" s="8"/>
     </row>
     <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A672" s="7"/>
-      <c r="B672" s="7"/>
+      <c r="A672" s="8"/>
+      <c r="B672" s="8"/>
     </row>
     <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A673" s="7"/>
-      <c r="B673" s="7"/>
+      <c r="A673" s="8"/>
+      <c r="B673" s="8"/>
     </row>
     <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A674" s="7"/>
-      <c r="B674" s="7"/>
+      <c r="A674" s="8"/>
+      <c r="B674" s="8"/>
     </row>
     <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A675" s="7"/>
-      <c r="B675" s="7"/>
+      <c r="A675" s="8"/>
+      <c r="B675" s="8"/>
     </row>
     <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A676" s="7"/>
-      <c r="B676" s="7"/>
+      <c r="A676" s="8"/>
+      <c r="B676" s="8"/>
     </row>
     <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A677" s="7"/>
-      <c r="B677" s="7"/>
+      <c r="A677" s="8"/>
+      <c r="B677" s="8"/>
     </row>
     <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A678" s="7"/>
-      <c r="B678" s="7"/>
+      <c r="A678" s="8"/>
+      <c r="B678" s="8"/>
     </row>
     <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A679" s="7"/>
-      <c r="B679" s="7"/>
+      <c r="A679" s="8"/>
+      <c r="B679" s="8"/>
     </row>
     <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A680" s="7"/>
-      <c r="B680" s="7"/>
+      <c r="A680" s="8"/>
+      <c r="B680" s="8"/>
     </row>
     <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A681" s="7"/>
-      <c r="B681" s="7"/>
+      <c r="A681" s="8"/>
+      <c r="B681" s="8"/>
     </row>
     <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A682" s="7"/>
-      <c r="B682" s="7"/>
+      <c r="A682" s="8"/>
+      <c r="B682" s="8"/>
     </row>
     <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A683" s="7"/>
-      <c r="B683" s="7"/>
+      <c r="A683" s="8"/>
+      <c r="B683" s="8"/>
     </row>
     <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A684" s="7"/>
-      <c r="B684" s="7"/>
+      <c r="A684" s="8"/>
+      <c r="B684" s="8"/>
     </row>
     <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A685" s="7"/>
-      <c r="B685" s="7"/>
+      <c r="A685" s="8"/>
+      <c r="B685" s="8"/>
     </row>
     <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A686" s="7"/>
-      <c r="B686" s="7"/>
+      <c r="A686" s="8"/>
+      <c r="B686" s="8"/>
     </row>
     <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A687" s="7"/>
-      <c r="B687" s="7"/>
+      <c r="A687" s="8"/>
+      <c r="B687" s="8"/>
     </row>
     <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A688" s="7"/>
-      <c r="B688" s="7"/>
+      <c r="A688" s="8"/>
+      <c r="B688" s="8"/>
     </row>
     <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A689" s="7"/>
-      <c r="B689" s="7"/>
+      <c r="A689" s="8"/>
+      <c r="B689" s="8"/>
     </row>
     <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A690" s="7"/>
-      <c r="B690" s="7"/>
+      <c r="A690" s="8"/>
+      <c r="B690" s="8"/>
     </row>
     <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A691" s="7"/>
-      <c r="B691" s="7"/>
+      <c r="A691" s="8"/>
+      <c r="B691" s="8"/>
     </row>
     <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A692" s="7"/>
-      <c r="B692" s="7"/>
+      <c r="A692" s="8"/>
+      <c r="B692" s="8"/>
     </row>
     <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A693" s="7"/>
-      <c r="B693" s="7"/>
+      <c r="A693" s="8"/>
+      <c r="B693" s="8"/>
     </row>
     <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A694" s="7"/>
-      <c r="B694" s="7"/>
+      <c r="A694" s="8"/>
+      <c r="B694" s="8"/>
     </row>
     <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A695" s="7"/>
-      <c r="B695" s="7"/>
+      <c r="A695" s="8"/>
+      <c r="B695" s="8"/>
     </row>
     <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A696" s="7"/>
-      <c r="B696" s="7"/>
+      <c r="A696" s="8"/>
+      <c r="B696" s="8"/>
     </row>
     <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A697" s="7"/>
-      <c r="B697" s="7"/>
+      <c r="A697" s="8"/>
+      <c r="B697" s="8"/>
     </row>
     <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A698" s="7"/>
-      <c r="B698" s="7"/>
+      <c r="A698" s="8"/>
+      <c r="B698" s="8"/>
     </row>
     <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A699" s="7"/>
-      <c r="B699" s="7"/>
+      <c r="A699" s="8"/>
+      <c r="B699" s="8"/>
     </row>
     <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A700" s="7"/>
-      <c r="B700" s="7"/>
+      <c r="A700" s="8"/>
+      <c r="B700" s="8"/>
     </row>
     <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A701" s="7"/>
-      <c r="B701" s="7"/>
+      <c r="A701" s="8"/>
+      <c r="B701" s="8"/>
     </row>
     <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A702" s="7"/>
-      <c r="B702" s="7"/>
+      <c r="A702" s="8"/>
+      <c r="B702" s="8"/>
     </row>
     <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A703" s="7"/>
-      <c r="B703" s="7"/>
+      <c r="A703" s="8"/>
+      <c r="B703" s="8"/>
     </row>
     <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A704" s="7"/>
-      <c r="B704" s="7"/>
+      <c r="A704" s="8"/>
+      <c r="B704" s="8"/>
     </row>
     <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A705" s="7"/>
-      <c r="B705" s="7"/>
+      <c r="A705" s="8"/>
+      <c r="B705" s="8"/>
     </row>
     <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A706" s="7"/>
-      <c r="B706" s="7"/>
+      <c r="A706" s="8"/>
+      <c r="B706" s="8"/>
     </row>
     <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A707" s="7"/>
-      <c r="B707" s="7"/>
+      <c r="A707" s="8"/>
+      <c r="B707" s="8"/>
     </row>
     <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A708" s="7"/>
-      <c r="B708" s="7"/>
+      <c r="A708" s="8"/>
+      <c r="B708" s="8"/>
     </row>
     <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A709" s="7"/>
-      <c r="B709" s="7"/>
+      <c r="A709" s="8"/>
+      <c r="B709" s="8"/>
     </row>
     <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A710" s="7"/>
-      <c r="B710" s="7"/>
+      <c r="A710" s="8"/>
+      <c r="B710" s="8"/>
     </row>
     <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A711" s="7"/>
-      <c r="B711" s="7"/>
+      <c r="A711" s="8"/>
+      <c r="B711" s="8"/>
     </row>
     <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A712" s="7"/>
-      <c r="B712" s="7"/>
+      <c r="A712" s="8"/>
+      <c r="B712" s="8"/>
     </row>
     <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A713" s="7"/>
-      <c r="B713" s="7"/>
+      <c r="A713" s="8"/>
+      <c r="B713" s="8"/>
     </row>
     <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A714" s="7"/>
-      <c r="B714" s="7"/>
+      <c r="A714" s="8"/>
+      <c r="B714" s="8"/>
     </row>
     <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A715" s="7"/>
-      <c r="B715" s="7"/>
+      <c r="A715" s="8"/>
+      <c r="B715" s="8"/>
     </row>
     <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A716" s="7"/>
-      <c r="B716" s="7"/>
+      <c r="A716" s="8"/>
+      <c r="B716" s="8"/>
     </row>
     <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A717" s="7"/>
-      <c r="B717" s="7"/>
+      <c r="A717" s="8"/>
+      <c r="B717" s="8"/>
     </row>
     <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A718" s="7"/>
-      <c r="B718" s="7"/>
+      <c r="A718" s="8"/>
+      <c r="B718" s="8"/>
     </row>
     <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A719" s="7"/>
-      <c r="B719" s="7"/>
+      <c r="A719" s="8"/>
+      <c r="B719" s="8"/>
     </row>
     <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A720" s="7"/>
-      <c r="B720" s="7"/>
+      <c r="A720" s="8"/>
+      <c r="B720" s="8"/>
     </row>
     <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A721" s="7"/>
-      <c r="B721" s="7"/>
+      <c r="A721" s="8"/>
+      <c r="B721" s="8"/>
     </row>
     <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="7"/>
-      <c r="B722" s="7"/>
+      <c r="A722" s="8"/>
+      <c r="B722" s="8"/>
     </row>
     <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A723" s="7"/>
-      <c r="B723" s="7"/>
+      <c r="A723" s="8"/>
+      <c r="B723" s="8"/>
     </row>
     <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A724" s="7"/>
-      <c r="B724" s="7"/>
+      <c r="A724" s="8"/>
+      <c r="B724" s="8"/>
     </row>
     <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A725" s="7"/>
-      <c r="B725" s="7"/>
+      <c r="A725" s="8"/>
+      <c r="B725" s="8"/>
     </row>
     <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A726" s="7"/>
-      <c r="B726" s="7"/>
+      <c r="A726" s="8"/>
+      <c r="B726" s="8"/>
     </row>
     <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A727" s="7"/>
-      <c r="B727" s="7"/>
+      <c r="A727" s="8"/>
+      <c r="B727" s="8"/>
     </row>
     <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A728" s="7"/>
-      <c r="B728" s="7"/>
+      <c r="A728" s="8"/>
+      <c r="B728" s="8"/>
     </row>
     <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A729" s="7"/>
-      <c r="B729" s="7"/>
+      <c r="A729" s="8"/>
+      <c r="B729" s="8"/>
     </row>
     <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A730" s="7"/>
-      <c r="B730" s="7"/>
+      <c r="A730" s="8"/>
+      <c r="B730" s="8"/>
     </row>
     <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A731" s="7"/>
-      <c r="B731" s="7"/>
+      <c r="A731" s="8"/>
+      <c r="B731" s="8"/>
     </row>
     <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A732" s="7"/>
-      <c r="B732" s="7"/>
+      <c r="A732" s="8"/>
+      <c r="B732" s="8"/>
     </row>
     <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A733" s="7"/>
-      <c r="B733" s="7"/>
+      <c r="A733" s="8"/>
+      <c r="B733" s="8"/>
     </row>
     <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A734" s="7"/>
-      <c r="B734" s="7"/>
+      <c r="A734" s="8"/>
+      <c r="B734" s="8"/>
     </row>
     <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A735" s="7"/>
-      <c r="B735" s="7"/>
+      <c r="A735" s="8"/>
+      <c r="B735" s="8"/>
     </row>
     <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A736" s="7"/>
-      <c r="B736" s="7"/>
+      <c r="A736" s="8"/>
+      <c r="B736" s="8"/>
     </row>
     <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A737" s="7"/>
-      <c r="B737" s="7"/>
+      <c r="A737" s="8"/>
+      <c r="B737" s="8"/>
     </row>
     <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A738" s="7"/>
-      <c r="B738" s="7"/>
+      <c r="A738" s="8"/>
+      <c r="B738" s="8"/>
     </row>
     <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A739" s="7"/>
-      <c r="B739" s="7"/>
+      <c r="A739" s="8"/>
+      <c r="B739" s="8"/>
     </row>
     <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A740" s="7"/>
-      <c r="B740" s="7"/>
+      <c r="A740" s="8"/>
+      <c r="B740" s="8"/>
     </row>
     <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A741" s="7"/>
-      <c r="B741" s="7"/>
+      <c r="A741" s="8"/>
+      <c r="B741" s="8"/>
     </row>
     <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A742" s="7"/>
-      <c r="B742" s="7"/>
+      <c r="A742" s="8"/>
+      <c r="B742" s="8"/>
     </row>
     <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A743" s="7"/>
-      <c r="B743" s="7"/>
+      <c r="A743" s="8"/>
+      <c r="B743" s="8"/>
     </row>
     <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A744" s="7"/>
-      <c r="B744" s="7"/>
+      <c r="A744" s="8"/>
+      <c r="B744" s="8"/>
     </row>
     <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A745" s="7"/>
-      <c r="B745" s="7"/>
+      <c r="A745" s="8"/>
+      <c r="B745" s="8"/>
     </row>
     <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A746" s="7"/>
-      <c r="B746" s="7"/>
+      <c r="A746" s="8"/>
+      <c r="B746" s="8"/>
     </row>
     <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A747" s="7"/>
-      <c r="B747" s="7"/>
+      <c r="A747" s="8"/>
+      <c r="B747" s="8"/>
     </row>
     <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A748" s="7"/>
-      <c r="B748" s="7"/>
+      <c r="A748" s="8"/>
+      <c r="B748" s="8"/>
     </row>
     <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A749" s="7"/>
-      <c r="B749" s="7"/>
+      <c r="A749" s="8"/>
+      <c r="B749" s="8"/>
     </row>
     <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A750" s="7"/>
-      <c r="B750" s="7"/>
+      <c r="A750" s="8"/>
+      <c r="B750" s="8"/>
     </row>
     <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A751" s="7"/>
-      <c r="B751" s="7"/>
+      <c r="A751" s="8"/>
+      <c r="B751" s="8"/>
     </row>
     <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A752" s="7"/>
-      <c r="B752" s="7"/>
+      <c r="A752" s="8"/>
+      <c r="B752" s="8"/>
     </row>
     <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A753" s="7"/>
-      <c r="B753" s="7"/>
+      <c r="A753" s="8"/>
+      <c r="B753" s="8"/>
     </row>
     <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A754" s="7"/>
-      <c r="B754" s="7"/>
+      <c r="A754" s="8"/>
+      <c r="B754" s="8"/>
     </row>
     <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A755" s="7"/>
-      <c r="B755" s="7"/>
+      <c r="A755" s="8"/>
+      <c r="B755" s="8"/>
     </row>
     <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A756" s="7"/>
-      <c r="B756" s="7"/>
+      <c r="A756" s="8"/>
+      <c r="B756" s="8"/>
     </row>
     <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A757" s="7"/>
-      <c r="B757" s="7"/>
+      <c r="A757" s="8"/>
+      <c r="B757" s="8"/>
     </row>
     <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A758" s="7"/>
-      <c r="B758" s="7"/>
+      <c r="A758" s="8"/>
+      <c r="B758" s="8"/>
     </row>
     <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A759" s="7"/>
-      <c r="B759" s="7"/>
+      <c r="A759" s="8"/>
+      <c r="B759" s="8"/>
     </row>
     <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A760" s="7"/>
-      <c r="B760" s="7"/>
+      <c r="A760" s="8"/>
+      <c r="B760" s="8"/>
     </row>
     <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A761" s="7"/>
-      <c r="B761" s="7"/>
+      <c r="A761" s="8"/>
+      <c r="B761" s="8"/>
     </row>
     <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A762" s="7"/>
-      <c r="B762" s="7"/>
+      <c r="A762" s="8"/>
+      <c r="B762" s="8"/>
     </row>
     <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A763" s="7"/>
-      <c r="B763" s="7"/>
+      <c r="A763" s="8"/>
+      <c r="B763" s="8"/>
     </row>
     <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A764" s="7"/>
-      <c r="B764" s="7"/>
+      <c r="A764" s="8"/>
+      <c r="B764" s="8"/>
     </row>
     <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A765" s="7"/>
-      <c r="B765" s="7"/>
+      <c r="A765" s="8"/>
+      <c r="B765" s="8"/>
     </row>
     <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A766" s="7"/>
-      <c r="B766" s="7"/>
+      <c r="A766" s="8"/>
+      <c r="B766" s="8"/>
     </row>
     <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A767" s="7"/>
-      <c r="B767" s="7"/>
+      <c r="A767" s="8"/>
+      <c r="B767" s="8"/>
     </row>
     <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A768" s="7"/>
-      <c r="B768" s="7"/>
+      <c r="A768" s="8"/>
+      <c r="B768" s="8"/>
     </row>
     <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A769" s="7"/>
-      <c r="B769" s="7"/>
+      <c r="A769" s="8"/>
+      <c r="B769" s="8"/>
     </row>
     <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A770" s="7"/>
-      <c r="B770" s="7"/>
+      <c r="A770" s="8"/>
+      <c r="B770" s="8"/>
     </row>
     <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A771" s="7"/>
-      <c r="B771" s="7"/>
+      <c r="A771" s="8"/>
+      <c r="B771" s="8"/>
     </row>
     <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A772" s="7"/>
-      <c r="B772" s="7"/>
+      <c r="A772" s="8"/>
+      <c r="B772" s="8"/>
     </row>
     <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A773" s="7"/>
-      <c r="B773" s="7"/>
+      <c r="A773" s="8"/>
+      <c r="B773" s="8"/>
     </row>
     <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A774" s="7"/>
-      <c r="B774" s="7"/>
+      <c r="A774" s="8"/>
+      <c r="B774" s="8"/>
     </row>
     <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A775" s="7"/>
-      <c r="B775" s="7"/>
+      <c r="A775" s="8"/>
+      <c r="B775" s="8"/>
     </row>
     <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A776" s="7"/>
-      <c r="B776" s="7"/>
+      <c r="A776" s="8"/>
+      <c r="B776" s="8"/>
     </row>
     <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A777" s="7"/>
-      <c r="B777" s="7"/>
+      <c r="A777" s="8"/>
+      <c r="B777" s="8"/>
     </row>
     <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A778" s="7"/>
-      <c r="B778" s="7"/>
+      <c r="A778" s="8"/>
+      <c r="B778" s="8"/>
     </row>
     <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A779" s="7"/>
-      <c r="B779" s="7"/>
+      <c r="A779" s="8"/>
+      <c r="B779" s="8"/>
     </row>
     <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A780" s="7"/>
-      <c r="B780" s="7"/>
+      <c r="A780" s="8"/>
+      <c r="B780" s="8"/>
     </row>
     <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A781" s="7"/>
-      <c r="B781" s="7"/>
+      <c r="A781" s="8"/>
+      <c r="B781" s="8"/>
     </row>
     <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A782" s="7"/>
-      <c r="B782" s="7"/>
+      <c r="A782" s="8"/>
+      <c r="B782" s="8"/>
     </row>
     <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A783" s="7"/>
-      <c r="B783" s="7"/>
+      <c r="A783" s="8"/>
+      <c r="B783" s="8"/>
     </row>
     <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A784" s="7"/>
-      <c r="B784" s="7"/>
+      <c r="A784" s="8"/>
+      <c r="B784" s="8"/>
     </row>
     <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A785" s="7"/>
-      <c r="B785" s="7"/>
+      <c r="A785" s="8"/>
+      <c r="B785" s="8"/>
     </row>
     <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A786" s="7"/>
-      <c r="B786" s="7"/>
+      <c r="A786" s="8"/>
+      <c r="B786" s="8"/>
     </row>
     <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A787" s="7"/>
-      <c r="B787" s="7"/>
+      <c r="A787" s="8"/>
+      <c r="B787" s="8"/>
     </row>
     <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A788" s="7"/>
-      <c r="B788" s="7"/>
+      <c r="A788" s="8"/>
+      <c r="B788" s="8"/>
     </row>
     <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A789" s="7"/>
-      <c r="B789" s="7"/>
+      <c r="A789" s="8"/>
+      <c r="B789" s="8"/>
     </row>
     <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A790" s="7"/>
-      <c r="B790" s="7"/>
+      <c r="A790" s="8"/>
+      <c r="B790" s="8"/>
     </row>
     <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A791" s="7"/>
-      <c r="B791" s="7"/>
+      <c r="A791" s="8"/>
+      <c r="B791" s="8"/>
     </row>
     <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A792" s="7"/>
-      <c r="B792" s="7"/>
+      <c r="A792" s="8"/>
+      <c r="B792" s="8"/>
     </row>
     <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A793" s="7"/>
-      <c r="B793" s="7"/>
+      <c r="A793" s="8"/>
+      <c r="B793" s="8"/>
     </row>
     <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A794" s="7"/>
-      <c r="B794" s="7"/>
+      <c r="A794" s="8"/>
+      <c r="B794" s="8"/>
     </row>
     <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A795" s="7"/>
-      <c r="B795" s="7"/>
+      <c r="A795" s="8"/>
+      <c r="B795" s="8"/>
     </row>
     <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A796" s="7"/>
-      <c r="B796" s="7"/>
+      <c r="A796" s="8"/>
+      <c r="B796" s="8"/>
     </row>
     <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A797" s="7"/>
-      <c r="B797" s="7"/>
+      <c r="A797" s="8"/>
+      <c r="B797" s="8"/>
     </row>
     <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A798" s="7"/>
-      <c r="B798" s="7"/>
+      <c r="A798" s="8"/>
+      <c r="B798" s="8"/>
     </row>
     <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A799" s="7"/>
-      <c r="B799" s="7"/>
+      <c r="A799" s="8"/>
+      <c r="B799" s="8"/>
     </row>
     <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A800" s="7"/>
-      <c r="B800" s="7"/>
+      <c r="A800" s="8"/>
+      <c r="B800" s="8"/>
     </row>
     <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A801" s="7"/>
-      <c r="B801" s="7"/>
+      <c r="A801" s="8"/>
+      <c r="B801" s="8"/>
     </row>
     <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A802" s="7"/>
-      <c r="B802" s="7"/>
+      <c r="A802" s="8"/>
+      <c r="B802" s="8"/>
     </row>
     <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A803" s="7"/>
-      <c r="B803" s="7"/>
+      <c r="A803" s="8"/>
+      <c r="B803" s="8"/>
     </row>
     <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A804" s="7"/>
-      <c r="B804" s="7"/>
+      <c r="A804" s="8"/>
+      <c r="B804" s="8"/>
     </row>
     <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A805" s="7"/>
-      <c r="B805" s="7"/>
+      <c r="A805" s="8"/>
+      <c r="B805" s="8"/>
     </row>
     <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A806" s="7"/>
-      <c r="B806" s="7"/>
+      <c r="A806" s="8"/>
+      <c r="B806" s="8"/>
     </row>
     <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A807" s="7"/>
-      <c r="B807" s="7"/>
+      <c r="A807" s="8"/>
+      <c r="B807" s="8"/>
     </row>
     <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A808" s="7"/>
-      <c r="B808" s="7"/>
+      <c r="A808" s="8"/>
+      <c r="B808" s="8"/>
     </row>
     <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A809" s="7"/>
-      <c r="B809" s="7"/>
+      <c r="A809" s="8"/>
+      <c r="B809" s="8"/>
     </row>
     <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A810" s="7"/>
-      <c r="B810" s="7"/>
+      <c r="A810" s="8"/>
+      <c r="B810" s="8"/>
     </row>
     <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A811" s="7"/>
-      <c r="B811" s="7"/>
+      <c r="A811" s="8"/>
+      <c r="B811" s="8"/>
     </row>
     <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A812" s="7"/>
-      <c r="B812" s="7"/>
+      <c r="A812" s="8"/>
+      <c r="B812" s="8"/>
     </row>
     <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A813" s="7"/>
-      <c r="B813" s="7"/>
+      <c r="A813" s="8"/>
+      <c r="B813" s="8"/>
     </row>
     <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A814" s="7"/>
-      <c r="B814" s="7"/>
+      <c r="A814" s="8"/>
+      <c r="B814" s="8"/>
     </row>
     <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A815" s="7"/>
-      <c r="B815" s="7"/>
+      <c r="A815" s="8"/>
+      <c r="B815" s="8"/>
     </row>
     <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A816" s="7"/>
-      <c r="B816" s="7"/>
+      <c r="A816" s="8"/>
+      <c r="B816" s="8"/>
     </row>
     <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A817" s="7"/>
-      <c r="B817" s="7"/>
+      <c r="A817" s="8"/>
+      <c r="B817" s="8"/>
     </row>
     <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A818" s="7"/>
-      <c r="B818" s="7"/>
+      <c r="A818" s="8"/>
+      <c r="B818" s="8"/>
     </row>
     <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A819" s="7"/>
-      <c r="B819" s="7"/>
+      <c r="A819" s="8"/>
+      <c r="B819" s="8"/>
     </row>
     <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A820" s="7"/>
-      <c r="B820" s="7"/>
+      <c r="A820" s="8"/>
+      <c r="B820" s="8"/>
     </row>
     <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A821" s="7"/>
-      <c r="B821" s="7"/>
+      <c r="A821" s="8"/>
+      <c r="B821" s="8"/>
     </row>
     <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A822" s="7"/>
-      <c r="B822" s="7"/>
+      <c r="A822" s="8"/>
+      <c r="B822" s="8"/>
     </row>
     <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A823" s="7"/>
-      <c r="B823" s="7"/>
+      <c r="A823" s="8"/>
+      <c r="B823" s="8"/>
     </row>
     <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A824" s="7"/>
-      <c r="B824" s="7"/>
+      <c r="A824" s="8"/>
+      <c r="B824" s="8"/>
     </row>
     <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A825" s="7"/>
-      <c r="B825" s="7"/>
+      <c r="A825" s="8"/>
+      <c r="B825" s="8"/>
     </row>
     <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A826" s="7"/>
-      <c r="B826" s="7"/>
+      <c r="A826" s="8"/>
+      <c r="B826" s="8"/>
     </row>
     <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A827" s="7"/>
-      <c r="B827" s="7"/>
+      <c r="A827" s="8"/>
+      <c r="B827" s="8"/>
     </row>
     <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A828" s="7"/>
-      <c r="B828" s="7"/>
+      <c r="A828" s="8"/>
+      <c r="B828" s="8"/>
     </row>
     <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A829" s="7"/>
-      <c r="B829" s="7"/>
+      <c r="A829" s="8"/>
+      <c r="B829" s="8"/>
     </row>
     <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A830" s="7"/>
-      <c r="B830" s="7"/>
+      <c r="A830" s="8"/>
+      <c r="B830" s="8"/>
     </row>
     <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A831" s="7"/>
-      <c r="B831" s="7"/>
+      <c r="A831" s="8"/>
+      <c r="B831" s="8"/>
     </row>
     <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A832" s="7"/>
-      <c r="B832" s="7"/>
+      <c r="A832" s="8"/>
+      <c r="B832" s="8"/>
     </row>
     <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A833" s="7"/>
-      <c r="B833" s="7"/>
+      <c r="A833" s="8"/>
+      <c r="B833" s="8"/>
     </row>
     <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A834" s="7"/>
-      <c r="B834" s="7"/>
+      <c r="A834" s="8"/>
+      <c r="B834" s="8"/>
     </row>
     <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A835" s="7"/>
-      <c r="B835" s="7"/>
+      <c r="A835" s="8"/>
+      <c r="B835" s="8"/>
     </row>
     <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A836" s="7"/>
-      <c r="B836" s="7"/>
+      <c r="A836" s="8"/>
+      <c r="B836" s="8"/>
     </row>
     <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A837" s="7"/>
-      <c r="B837" s="7"/>
+      <c r="A837" s="8"/>
+      <c r="B837" s="8"/>
     </row>
     <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A838" s="7"/>
-      <c r="B838" s="7"/>
+      <c r="A838" s="8"/>
+      <c r="B838" s="8"/>
     </row>
     <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A839" s="7"/>
-      <c r="B839" s="7"/>
+      <c r="A839" s="8"/>
+      <c r="B839" s="8"/>
     </row>
     <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A840" s="7"/>
-      <c r="B840" s="7"/>
+      <c r="A840" s="8"/>
+      <c r="B840" s="8"/>
     </row>
     <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A841" s="7"/>
-      <c r="B841" s="7"/>
+      <c r="A841" s="8"/>
+      <c r="B841" s="8"/>
     </row>
     <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A842" s="7"/>
-      <c r="B842" s="7"/>
+      <c r="A842" s="8"/>
+      <c r="B842" s="8"/>
     </row>
     <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A843" s="7"/>
-      <c r="B843" s="7"/>
+      <c r="A843" s="8"/>
+      <c r="B843" s="8"/>
     </row>
     <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A844" s="7"/>
-      <c r="B844" s="7"/>
+      <c r="A844" s="8"/>
+      <c r="B844" s="8"/>
     </row>
     <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A845" s="7"/>
-      <c r="B845" s="7"/>
+      <c r="A845" s="8"/>
+      <c r="B845" s="8"/>
     </row>
     <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A846" s="7"/>
-      <c r="B846" s="7"/>
+      <c r="A846" s="8"/>
+      <c r="B846" s="8"/>
     </row>
     <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A847" s="7"/>
-      <c r="B847" s="7"/>
+      <c r="A847" s="8"/>
+      <c r="B847" s="8"/>
     </row>
     <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A848" s="7"/>
-      <c r="B848" s="7"/>
+      <c r="A848" s="8"/>
+      <c r="B848" s="8"/>
     </row>
     <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A849" s="7"/>
-      <c r="B849" s="7"/>
+      <c r="A849" s="8"/>
+      <c r="B849" s="8"/>
     </row>
     <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A850" s="7"/>
-      <c r="B850" s="7"/>
+      <c r="A850" s="8"/>
+      <c r="B850" s="8"/>
     </row>
     <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A851" s="7"/>
-      <c r="B851" s="7"/>
+      <c r="A851" s="8"/>
+      <c r="B851" s="8"/>
     </row>
     <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A852" s="7"/>
-      <c r="B852" s="7"/>
+      <c r="A852" s="8"/>
+      <c r="B852" s="8"/>
     </row>
     <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A853" s="7"/>
-      <c r="B853" s="7"/>
+      <c r="A853" s="8"/>
+      <c r="B853" s="8"/>
     </row>
     <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A854" s="7"/>
-      <c r="B854" s="7"/>
+      <c r="A854" s="8"/>
+      <c r="B854" s="8"/>
     </row>
     <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A855" s="7"/>
-      <c r="B855" s="7"/>
+      <c r="A855" s="8"/>
+      <c r="B855" s="8"/>
     </row>
     <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A856" s="7"/>
-      <c r="B856" s="7"/>
+      <c r="A856" s="8"/>
+      <c r="B856" s="8"/>
     </row>
     <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A857" s="7"/>
-      <c r="B857" s="7"/>
+      <c r="A857" s="8"/>
+      <c r="B857" s="8"/>
     </row>
     <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A858" s="7"/>
-      <c r="B858" s="7"/>
+      <c r="A858" s="8"/>
+      <c r="B858" s="8"/>
     </row>
     <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A859" s="7"/>
-      <c r="B859" s="7"/>
+      <c r="A859" s="8"/>
+      <c r="B859" s="8"/>
     </row>
     <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A860" s="7"/>
-      <c r="B860" s="7"/>
+      <c r="A860" s="8"/>
+      <c r="B860" s="8"/>
     </row>
     <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A861" s="7"/>
-      <c r="B861" s="7"/>
+      <c r="A861" s="8"/>
+      <c r="B861" s="8"/>
     </row>
     <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A862" s="7"/>
-      <c r="B862" s="7"/>
+      <c r="A862" s="8"/>
+      <c r="B862" s="8"/>
     </row>
     <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A863" s="7"/>
-      <c r="B863" s="7"/>
+      <c r="A863" s="8"/>
+      <c r="B863" s="8"/>
     </row>
     <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A864" s="7"/>
-      <c r="B864" s="7"/>
+      <c r="A864" s="8"/>
+      <c r="B864" s="8"/>
     </row>
     <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A865" s="7"/>
-      <c r="B865" s="7"/>
+      <c r="A865" s="8"/>
+      <c r="B865" s="8"/>
     </row>
     <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A866" s="7"/>
-      <c r="B866" s="7"/>
+      <c r="A866" s="8"/>
+      <c r="B866" s="8"/>
     </row>
     <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A867" s="7"/>
-      <c r="B867" s="7"/>
+      <c r="A867" s="8"/>
+      <c r="B867" s="8"/>
     </row>
     <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A868" s="7"/>
-      <c r="B868" s="7"/>
+      <c r="A868" s="8"/>
+      <c r="B868" s="8"/>
     </row>
     <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A869" s="7"/>
-      <c r="B869" s="7"/>
+      <c r="A869" s="8"/>
+      <c r="B869" s="8"/>
     </row>
     <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A870" s="7"/>
-      <c r="B870" s="7"/>
+      <c r="A870" s="8"/>
+      <c r="B870" s="8"/>
     </row>
     <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A871" s="7"/>
-      <c r="B871" s="7"/>
+      <c r="A871" s="8"/>
+      <c r="B871" s="8"/>
     </row>
     <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A872" s="7"/>
-      <c r="B872" s="7"/>
+      <c r="A872" s="8"/>
+      <c r="B872" s="8"/>
     </row>
     <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A873" s="7"/>
-      <c r="B873" s="7"/>
+      <c r="A873" s="8"/>
+      <c r="B873" s="8"/>
     </row>
     <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A874" s="7"/>
-      <c r="B874" s="7"/>
+      <c r="A874" s="8"/>
+      <c r="B874" s="8"/>
     </row>
     <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A875" s="7"/>
-      <c r="B875" s="7"/>
+      <c r="A875" s="8"/>
+      <c r="B875" s="8"/>
     </row>
     <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A876" s="7"/>
-      <c r="B876" s="7"/>
+      <c r="A876" s="8"/>
+      <c r="B876" s="8"/>
     </row>
     <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A877" s="7"/>
-      <c r="B877" s="7"/>
+      <c r="A877" s="8"/>
+      <c r="B877" s="8"/>
     </row>
     <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A878" s="7"/>
-      <c r="B878" s="7"/>
+      <c r="A878" s="8"/>
+      <c r="B878" s="8"/>
     </row>
     <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A879" s="7"/>
-      <c r="B879" s="7"/>
+      <c r="A879" s="8"/>
+      <c r="B879" s="8"/>
     </row>
     <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A880" s="7"/>
-      <c r="B880" s="7"/>
+      <c r="A880" s="8"/>
+      <c r="B880" s="8"/>
     </row>
     <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A881" s="7"/>
-      <c r="B881" s="7"/>
+      <c r="A881" s="8"/>
+      <c r="B881" s="8"/>
     </row>
     <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A882" s="7"/>
-      <c r="B882" s="7"/>
+      <c r="A882" s="8"/>
+      <c r="B882" s="8"/>
     </row>
     <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A883" s="7"/>
-      <c r="B883" s="7"/>
+      <c r="A883" s="8"/>
+      <c r="B883" s="8"/>
     </row>
     <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A884" s="7"/>
-      <c r="B884" s="7"/>
+      <c r="A884" s="8"/>
+      <c r="B884" s="8"/>
     </row>
     <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A885" s="7"/>
-      <c r="B885" s="7"/>
+      <c r="A885" s="8"/>
+      <c r="B885" s="8"/>
     </row>
     <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A886" s="7"/>
-      <c r="B886" s="7"/>
+      <c r="A886" s="8"/>
+      <c r="B886" s="8"/>
     </row>
     <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A887" s="7"/>
-      <c r="B887" s="7"/>
+      <c r="A887" s="8"/>
+      <c r="B887" s="8"/>
     </row>
     <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A888" s="7"/>
-      <c r="B888" s="7"/>
+      <c r="A888" s="8"/>
+      <c r="B888" s="8"/>
     </row>
     <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A889" s="7"/>
-      <c r="B889" s="7"/>
+      <c r="A889" s="8"/>
+      <c r="B889" s="8"/>
     </row>
     <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A890" s="7"/>
-      <c r="B890" s="7"/>
+      <c r="A890" s="8"/>
+      <c r="B890" s="8"/>
     </row>
     <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A891" s="7"/>
-      <c r="B891" s="7"/>
+      <c r="A891" s="8"/>
+      <c r="B891" s="8"/>
     </row>
     <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A892" s="7"/>
-      <c r="B892" s="7"/>
+      <c r="A892" s="8"/>
+      <c r="B892" s="8"/>
     </row>
     <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A893" s="7"/>
-      <c r="B893" s="7"/>
+      <c r="A893" s="8"/>
+      <c r="B893" s="8"/>
     </row>
     <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A894" s="7"/>
-      <c r="B894" s="7"/>
+      <c r="A894" s="8"/>
+      <c r="B894" s="8"/>
     </row>
     <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A895" s="7"/>
-      <c r="B895" s="7"/>
+      <c r="A895" s="8"/>
+      <c r="B895" s="8"/>
     </row>
     <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A896" s="7"/>
-      <c r="B896" s="7"/>
+      <c r="A896" s="8"/>
+      <c r="B896" s="8"/>
     </row>
     <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A897" s="7"/>
-      <c r="B897" s="7"/>
+      <c r="A897" s="8"/>
+      <c r="B897" s="8"/>
     </row>
     <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A898" s="7"/>
-      <c r="B898" s="7"/>
+      <c r="A898" s="8"/>
+      <c r="B898" s="8"/>
     </row>
     <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A899" s="7"/>
-      <c r="B899" s="7"/>
+      <c r="A899" s="8"/>
+      <c r="B899" s="8"/>
     </row>
     <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A900" s="7"/>
-      <c r="B900" s="7"/>
+      <c r="A900" s="8"/>
+      <c r="B900" s="8"/>
     </row>
     <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A901" s="7"/>
-      <c r="B901" s="7"/>
+      <c r="A901" s="8"/>
+      <c r="B901" s="8"/>
     </row>
     <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A902" s="7"/>
-      <c r="B902" s="7"/>
+      <c r="A902" s="8"/>
+      <c r="B902" s="8"/>
     </row>
     <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A903" s="7"/>
-      <c r="B903" s="7"/>
+      <c r="A903" s="8"/>
+      <c r="B903" s="8"/>
     </row>
     <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A904" s="7"/>
-      <c r="B904" s="7"/>
+      <c r="A904" s="8"/>
+      <c r="B904" s="8"/>
     </row>
     <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A905" s="7"/>
-      <c r="B905" s="7"/>
+      <c r="A905" s="8"/>
+      <c r="B905" s="8"/>
     </row>
     <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A906" s="7"/>
-      <c r="B906" s="7"/>
+      <c r="A906" s="8"/>
+      <c r="B906" s="8"/>
     </row>
     <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A907" s="7"/>
-      <c r="B907" s="7"/>
+      <c r="A907" s="8"/>
+      <c r="B907" s="8"/>
     </row>
     <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A908" s="7"/>
-      <c r="B908" s="7"/>
+      <c r="A908" s="8"/>
+      <c r="B908" s="8"/>
     </row>
     <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A909" s="7"/>
-      <c r="B909" s="7"/>
+      <c r="A909" s="8"/>
+      <c r="B909" s="8"/>
     </row>
     <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A910" s="7"/>
-      <c r="B910" s="7"/>
+      <c r="A910" s="8"/>
+      <c r="B910" s="8"/>
     </row>
     <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A911" s="7"/>
-      <c r="B911" s="7"/>
+      <c r="A911" s="8"/>
+      <c r="B911" s="8"/>
     </row>
     <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A912" s="7"/>
-      <c r="B912" s="7"/>
+      <c r="A912" s="8"/>
+      <c r="B912" s="8"/>
     </row>
     <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A913" s="7"/>
-      <c r="B913" s="7"/>
+      <c r="A913" s="8"/>
+      <c r="B913" s="8"/>
     </row>
     <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A914" s="7"/>
-      <c r="B914" s="7"/>
+      <c r="A914" s="8"/>
+      <c r="B914" s="8"/>
     </row>
     <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A915" s="7"/>
-      <c r="B915" s="7"/>
+      <c r="A915" s="8"/>
+      <c r="B915" s="8"/>
     </row>
     <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A916" s="7"/>
-      <c r="B916" s="7"/>
+      <c r="A916" s="8"/>
+      <c r="B916" s="8"/>
     </row>
     <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A917" s="7"/>
-      <c r="B917" s="7"/>
+      <c r="A917" s="8"/>
+      <c r="B917" s="8"/>
     </row>
     <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A918" s="7"/>
-      <c r="B918" s="7"/>
+      <c r="A918" s="8"/>
+      <c r="B918" s="8"/>
     </row>
     <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A919" s="7"/>
-      <c r="B919" s="7"/>
+      <c r="A919" s="8"/>
+      <c r="B919" s="8"/>
     </row>
     <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A920" s="7"/>
-      <c r="B920" s="7"/>
+      <c r="A920" s="8"/>
+      <c r="B920" s="8"/>
     </row>
     <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A921" s="7"/>
-      <c r="B921" s="7"/>
+      <c r="A921" s="8"/>
+      <c r="B921" s="8"/>
     </row>
     <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A922" s="7"/>
-      <c r="B922" s="7"/>
+      <c r="A922" s="8"/>
+      <c r="B922" s="8"/>
     </row>
     <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A923" s="7"/>
-      <c r="B923" s="7"/>
+      <c r="A923" s="8"/>
+      <c r="B923" s="8"/>
     </row>
     <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A924" s="7"/>
-      <c r="B924" s="7"/>
+      <c r="A924" s="8"/>
+      <c r="B924" s="8"/>
     </row>
     <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A925" s="7"/>
-      <c r="B925" s="7"/>
+      <c r="A925" s="8"/>
+      <c r="B925" s="8"/>
     </row>
     <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A926" s="7"/>
-      <c r="B926" s="7"/>
+      <c r="A926" s="8"/>
+      <c r="B926" s="8"/>
     </row>
     <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A927" s="7"/>
-      <c r="B927" s="7"/>
+      <c r="A927" s="8"/>
+      <c r="B927" s="8"/>
     </row>
     <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A928" s="7"/>
-      <c r="B928" s="7"/>
+      <c r="A928" s="8"/>
+      <c r="B928" s="8"/>
     </row>
     <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A929" s="7"/>
-      <c r="B929" s="7"/>
+      <c r="A929" s="8"/>
+      <c r="B929" s="8"/>
     </row>
     <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A930" s="7"/>
-      <c r="B930" s="7"/>
+      <c r="A930" s="8"/>
+      <c r="B930" s="8"/>
     </row>
     <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A931" s="7"/>
-      <c r="B931" s="7"/>
+      <c r="A931" s="8"/>
+      <c r="B931" s="8"/>
     </row>
     <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A932" s="7"/>
-      <c r="B932" s="7"/>
+      <c r="A932" s="8"/>
+      <c r="B932" s="8"/>
     </row>
     <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A933" s="7"/>
-      <c r="B933" s="7"/>
+      <c r="A933" s="8"/>
+      <c r="B933" s="8"/>
     </row>
     <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A934" s="7"/>
-      <c r="B934" s="7"/>
+      <c r="A934" s="8"/>
+      <c r="B934" s="8"/>
     </row>
     <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A935" s="7"/>
-      <c r="B935" s="7"/>
+      <c r="A935" s="8"/>
+      <c r="B935" s="8"/>
     </row>
     <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A936" s="7"/>
-      <c r="B936" s="7"/>
+      <c r="A936" s="8"/>
+      <c r="B936" s="8"/>
     </row>
     <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A937" s="7"/>
-      <c r="B937" s="7"/>
+      <c r="A937" s="8"/>
+      <c r="B937" s="8"/>
     </row>
     <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A938" s="7"/>
-      <c r="B938" s="7"/>
+      <c r="A938" s="8"/>
+      <c r="B938" s="8"/>
     </row>
     <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A939" s="7"/>
-      <c r="B939" s="7"/>
+      <c r="A939" s="8"/>
+      <c r="B939" s="8"/>
     </row>
     <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A940" s="7"/>
-      <c r="B940" s="7"/>
+      <c r="A940" s="8"/>
+      <c r="B940" s="8"/>
     </row>
     <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A941" s="7"/>
-      <c r="B941" s="7"/>
+      <c r="A941" s="8"/>
+      <c r="B941" s="8"/>
     </row>
     <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A942" s="7"/>
-      <c r="B942" s="7"/>
+      <c r="A942" s="8"/>
+      <c r="B942" s="8"/>
     </row>
     <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A943" s="7"/>
-      <c r="B943" s="7"/>
+      <c r="A943" s="8"/>
+      <c r="B943" s="8"/>
     </row>
     <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A944" s="7"/>
-      <c r="B944" s="7"/>
+      <c r="A944" s="8"/>
+      <c r="B944" s="8"/>
     </row>
     <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A945" s="7"/>
-      <c r="B945" s="7"/>
+      <c r="A945" s="8"/>
+      <c r="B945" s="8"/>
     </row>
     <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A946" s="7"/>
-      <c r="B946" s="7"/>
+      <c r="A946" s="8"/>
+      <c r="B946" s="8"/>
     </row>
     <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A947" s="7"/>
-      <c r="B947" s="7"/>
+      <c r="A947" s="8"/>
+      <c r="B947" s="8"/>
     </row>
     <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A948" s="7"/>
-      <c r="B948" s="7"/>
+      <c r="A948" s="8"/>
+      <c r="B948" s="8"/>
     </row>
     <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A949" s="7"/>
-      <c r="B949" s="7"/>
+      <c r="A949" s="8"/>
+      <c r="B949" s="8"/>
     </row>
     <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A950" s="7"/>
-      <c r="B950" s="7"/>
+      <c r="A950" s="8"/>
+      <c r="B950" s="8"/>
     </row>
     <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A951" s="7"/>
-      <c r="B951" s="7"/>
+      <c r="A951" s="8"/>
+      <c r="B951" s="8"/>
     </row>
     <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A952" s="7"/>
-      <c r="B952" s="7"/>
+      <c r="A952" s="8"/>
+      <c r="B952" s="8"/>
     </row>
     <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A953" s="7"/>
-      <c r="B953" s="7"/>
+      <c r="A953" s="8"/>
+      <c r="B953" s="8"/>
     </row>
     <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A954" s="7"/>
-      <c r="B954" s="7"/>
+      <c r="A954" s="8"/>
+      <c r="B954" s="8"/>
     </row>
     <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A955" s="7"/>
-      <c r="B955" s="7"/>
+      <c r="A955" s="8"/>
+      <c r="B955" s="8"/>
     </row>
     <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A956" s="7"/>
-      <c r="B956" s="7"/>
+      <c r="A956" s="8"/>
+      <c r="B956" s="8"/>
     </row>
     <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A957" s="7"/>
-      <c r="B957" s="7"/>
+      <c r="A957" s="8"/>
+      <c r="B957" s="8"/>
     </row>
     <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A958" s="7"/>
-      <c r="B958" s="7"/>
+      <c r="A958" s="8"/>
+      <c r="B958" s="8"/>
     </row>
     <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A959" s="7"/>
-      <c r="B959" s="7"/>
+      <c r="A959" s="8"/>
+      <c r="B959" s="8"/>
     </row>
     <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A960" s="7"/>
-      <c r="B960" s="7"/>
+      <c r="A960" s="8"/>
+      <c r="B960" s="8"/>
     </row>
     <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A961" s="7"/>
-      <c r="B961" s="7"/>
+      <c r="A961" s="8"/>
+      <c r="B961" s="8"/>
     </row>
     <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A962" s="7"/>
-      <c r="B962" s="7"/>
+      <c r="A962" s="8"/>
+      <c r="B962" s="8"/>
     </row>
     <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A963" s="7"/>
-      <c r="B963" s="7"/>
+      <c r="A963" s="8"/>
+      <c r="B963" s="8"/>
     </row>
     <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A964" s="7"/>
-      <c r="B964" s="7"/>
+      <c r="A964" s="8"/>
+      <c r="B964" s="8"/>
     </row>
     <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A965" s="7"/>
-      <c r="B965" s="7"/>
+      <c r="A965" s="8"/>
+      <c r="B965" s="8"/>
     </row>
     <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A966" s="7"/>
-      <c r="B966" s="7"/>
+      <c r="A966" s="8"/>
+      <c r="B966" s="8"/>
     </row>
     <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A967" s="7"/>
-      <c r="B967" s="7"/>
+      <c r="A967" s="8"/>
+      <c r="B967" s="8"/>
     </row>
     <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A968" s="7"/>
-      <c r="B968" s="7"/>
+      <c r="A968" s="8"/>
+      <c r="B968" s="8"/>
     </row>
     <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A969" s="7"/>
-      <c r="B969" s="7"/>
+      <c r="A969" s="8"/>
+      <c r="B969" s="8"/>
     </row>
     <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A970" s="7"/>
-      <c r="B970" s="7"/>
+      <c r="A970" s="8"/>
+      <c r="B970" s="8"/>
     </row>
     <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A971" s="7"/>
-      <c r="B971" s="7"/>
+      <c r="A971" s="8"/>
+      <c r="B971" s="8"/>
     </row>
     <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A972" s="7"/>
-      <c r="B972" s="7"/>
+      <c r="A972" s="8"/>
+      <c r="B972" s="8"/>
     </row>
     <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A973" s="7"/>
-      <c r="B973" s="7"/>
+      <c r="A973" s="8"/>
+      <c r="B973" s="8"/>
     </row>
     <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A974" s="7"/>
-      <c r="B974" s="7"/>
+      <c r="A974" s="8"/>
+      <c r="B974" s="8"/>
     </row>
     <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A975" s="7"/>
-      <c r="B975" s="7"/>
+      <c r="A975" s="8"/>
+      <c r="B975" s="8"/>
     </row>
     <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A976" s="7"/>
-      <c r="B976" s="7"/>
+      <c r="A976" s="8"/>
+      <c r="B976" s="8"/>
     </row>
     <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A977" s="7"/>
-      <c r="B977" s="7"/>
+      <c r="A977" s="8"/>
+      <c r="B977" s="8"/>
     </row>
     <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A978" s="7"/>
-      <c r="B978" s="7"/>
+      <c r="A978" s="8"/>
+      <c r="B978" s="8"/>
     </row>
     <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A979" s="7"/>
-      <c r="B979" s="7"/>
+      <c r="A979" s="8"/>
+      <c r="B979" s="8"/>
     </row>
     <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A980" s="7"/>
-      <c r="B980" s="7"/>
+      <c r="A980" s="8"/>
+      <c r="B980" s="8"/>
     </row>
     <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A981" s="7"/>
-      <c r="B981" s="7"/>
+      <c r="A981" s="8"/>
+      <c r="B981" s="8"/>
     </row>
     <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A982" s="7"/>
-      <c r="B982" s="7"/>
+      <c r="A982" s="8"/>
+      <c r="B982" s="8"/>
     </row>
     <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A983" s="7"/>
-      <c r="B983" s="7"/>
+      <c r="A983" s="8"/>
+      <c r="B983" s="8"/>
     </row>
     <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A984" s="7"/>
-      <c r="B984" s="7"/>
+      <c r="A984" s="8"/>
+      <c r="B984" s="8"/>
     </row>
     <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A985" s="7"/>
-      <c r="B985" s="7"/>
+      <c r="A985" s="8"/>
+      <c r="B985" s="8"/>
     </row>
     <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A986" s="7"/>
-      <c r="B986" s="7"/>
+      <c r="A986" s="8"/>
+      <c r="B986" s="8"/>
     </row>
     <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A987" s="7"/>
-      <c r="B987" s="7"/>
+      <c r="A987" s="8"/>
+      <c r="B987" s="8"/>
     </row>
     <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A988" s="7"/>
-      <c r="B988" s="7"/>
+      <c r="A988" s="8"/>
+      <c r="B988" s="8"/>
     </row>
     <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A989" s="7"/>
-      <c r="B989" s="7"/>
+      <c r="A989" s="8"/>
+      <c r="B989" s="8"/>
     </row>
     <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A990" s="7"/>
-      <c r="B990" s="7"/>
+      <c r="A990" s="8"/>
+      <c r="B990" s="8"/>
     </row>
     <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A991" s="7"/>
-      <c r="B991" s="7"/>
+      <c r="A991" s="8"/>
+      <c r="B991" s="8"/>
     </row>
     <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A992" s="7"/>
-      <c r="B992" s="7"/>
+      <c r="A992" s="8"/>
+      <c r="B992" s="8"/>
     </row>
     <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A993" s="7"/>
-      <c r="B993" s="7"/>
+      <c r="A993" s="8"/>
+      <c r="B993" s="8"/>
     </row>
     <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A994" s="7"/>
-      <c r="B994" s="7"/>
+      <c r="A994" s="8"/>
+      <c r="B994" s="8"/>
     </row>
     <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A995" s="7"/>
-      <c r="B995" s="7"/>
+      <c r="A995" s="8"/>
+      <c r="B995" s="8"/>
     </row>
     <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A996" s="7"/>
-      <c r="B996" s="7"/>
+      <c r="A996" s="8"/>
+      <c r="B996" s="8"/>
     </row>
     <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A997" s="7"/>
-      <c r="B997" s="7"/>
+      <c r="A997" s="8"/>
+      <c r="B997" s="8"/>
     </row>
     <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A998" s="7"/>
-      <c r="B998" s="7"/>
+      <c r="A998" s="8"/>
+      <c r="B998" s="8"/>
     </row>
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A999" s="7"/>
-      <c r="B999" s="7"/>
+      <c r="A999" s="8"/>
+      <c r="B999" s="8"/>
     </row>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1000" s="7"/>
-      <c r="B1000" s="7"/>
+      <c r="A1000" s="8"/>
+      <c r="B1000" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7593,7 +7578,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7631,7 +7615,7 @@
       <c r="B2" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>265</v>
       </c>
     </row>
@@ -7880,7 +7864,7 @@
       <c r="A2" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>293</v>
       </c>
     </row>
@@ -7888,7 +7872,7 @@
       <c r="A3" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>294</v>
       </c>
     </row>
@@ -7896,7 +7880,7 @@
       <c r="A4" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>295</v>
       </c>
     </row>
@@ -7904,7 +7888,7 @@
       <c r="A5" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="10" t="s">
         <v>296</v>
       </c>
     </row>
@@ -7912,7 +7896,7 @@
       <c r="A6" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>297</v>
       </c>
     </row>
@@ -7920,7 +7904,7 @@
       <c r="A7" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>298</v>
       </c>
     </row>
@@ -7928,7 +7912,7 @@
       <c r="A8" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="10" t="s">
         <v>299</v>
       </c>
     </row>
@@ -7936,7 +7920,7 @@
       <c r="A9" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="10" t="s">
         <v>300</v>
       </c>
     </row>
@@ -7944,7 +7928,7 @@
       <c r="A10" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="10" t="s">
         <v>301</v>
       </c>
     </row>
@@ -7952,7 +7936,7 @@
       <c r="A11" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="10" t="s">
         <v>302</v>
       </c>
     </row>
@@ -7960,7 +7944,7 @@
       <c r="A12" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="10" t="s">
         <v>303</v>
       </c>
     </row>
@@ -7968,7 +7952,7 @@
       <c r="A13" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="10" t="s">
         <v>304</v>
       </c>
     </row>
@@ -7976,7 +7960,7 @@
       <c r="A14" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="10" t="s">
         <v>305</v>
       </c>
     </row>
@@ -7984,7 +7968,7 @@
       <c r="A15" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="10" t="s">
         <v>306</v>
       </c>
     </row>
@@ -7992,7 +7976,7 @@
       <c r="A16" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="10" t="s">
         <v>307</v>
       </c>
     </row>
@@ -8000,7 +7984,7 @@
       <c r="A17" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="10" t="s">
         <v>308</v>
       </c>
     </row>
@@ -8008,7 +7992,7 @@
       <c r="A18" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="10" t="s">
         <v>309</v>
       </c>
     </row>
@@ -8016,7 +8000,7 @@
       <c r="A19" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="11" t="s">
         <v>310</v>
       </c>
     </row>
@@ -8024,7 +8008,7 @@
       <c r="A20" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="10" t="s">
         <v>311</v>
       </c>
     </row>
@@ -8032,7 +8016,7 @@
       <c r="A21" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="10" t="s">
         <v>312</v>
       </c>
     </row>
@@ -8040,7 +8024,7 @@
       <c r="A22" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="10" t="s">
         <v>313</v>
       </c>
     </row>
@@ -8048,7 +8032,7 @@
       <c r="A23" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="10" t="s">
         <v>314</v>
       </c>
     </row>
@@ -8056,7 +8040,7 @@
       <c r="A24" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="10" t="s">
         <v>315</v>
       </c>
     </row>
@@ -8064,7 +8048,7 @@
       <c r="A25" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="10" t="s">
         <v>316</v>
       </c>
     </row>
@@ -8072,7 +8056,7 @@
       <c r="A26" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="10" t="s">
         <v>317</v>
       </c>
     </row>
@@ -8080,7 +8064,7 @@
       <c r="A27" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="10" t="s">
         <v>318</v>
       </c>
     </row>
@@ -8114,7 +8098,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>320</v>
       </c>
     </row>
@@ -8150,92 +8134,92 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>208</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>331</v>
+      <c r="A15" s="3" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>333</v>
+      <c r="A17" s="3" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>334</v>
+      <c r="A18" s="3" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>335</v>
+      <c r="A19" s="3" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>249</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8280,40 +8264,40 @@
         <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>351</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8321,22 +8305,22 @@
         <v>189</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>361</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8344,31 +8328,31 @@
         <v>192</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>370</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8376,25 +8360,25 @@
         <v>195</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>377</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8402,40 +8386,40 @@
         <v>198</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>384</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8443,34 +8427,34 @@
         <v>201</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D7" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>272</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="K7" s="2" t="s">
         <v>397</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8478,34 +8462,34 @@
         <v>204</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K8" s="8" t="s">
         <v>407</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8513,28 +8497,28 @@
         <v>207</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8542,40 +8526,40 @@
         <v>210</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="L10" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8583,16 +8567,16 @@
         <v>213</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>430</v>
+        <v>431</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8600,13 +8584,13 @@
         <v>216</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>434</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8614,19 +8598,19 @@
         <v>219</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>439</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8634,25 +8618,25 @@
         <v>222</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>445</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8660,22 +8644,22 @@
         <v>225</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8683,22 +8667,22 @@
         <v>228</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8706,46 +8690,46 @@
         <v>231</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>471</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8753,13 +8737,13 @@
         <v>234</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>474</v>
+        <v>475</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8767,37 +8751,37 @@
         <v>237</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>485</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8805,49 +8789,49 @@
         <v>239</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>490</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>495</v>
+        <v>496</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>497</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8858,28 +8842,28 @@
         <v>286</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>504</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>508</v>
+        <v>509</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8887,10 +8871,10 @@
         <v>245</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>510</v>
+        <v>511</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8901,10 +8885,10 @@
         <v>288</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8912,15 +8896,15 @@
         <v>251</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="E24" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>289</v>
       </c>
     </row>
@@ -8929,9 +8913,9 @@
         <v>254</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="C25" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>290</v>
       </c>
     </row>
@@ -8939,7 +8923,7 @@
       <c r="A26" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="10" t="s">
         <v>291</v>
       </c>
     </row>
@@ -8947,8 +8931,8 @@
       <c r="A27" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>517</v>
+      <c r="B27" s="10" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -8977,10 +8961,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8988,12 +8972,12 @@
         <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="D2" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>293</v>
       </c>
     </row>
@@ -9002,9 +8986,9 @@
         <v>189</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="C3" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>294</v>
       </c>
     </row>
@@ -9012,7 +8996,7 @@
       <c r="A4" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>295</v>
       </c>
     </row>
@@ -9020,7 +9004,7 @@
       <c r="A5" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="10" t="s">
         <v>296</v>
       </c>
     </row>
@@ -9028,7 +9012,7 @@
       <c r="A6" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>297</v>
       </c>
     </row>
@@ -9036,7 +9020,7 @@
       <c r="A7" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>298</v>
       </c>
     </row>
@@ -9045,9 +9029,9 @@
         <v>204</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="C8" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>299</v>
       </c>
     </row>
@@ -9055,10 +9039,10 @@
       <c r="A9" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>300</v>
       </c>
     </row>
@@ -9067,9 +9051,9 @@
         <v>210</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="C10" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>301</v>
       </c>
     </row>
@@ -9078,9 +9062,9 @@
         <v>213</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="C11" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>302</v>
       </c>
     </row>
@@ -9088,7 +9072,7 @@
       <c r="A12" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="10" t="s">
         <v>303</v>
       </c>
     </row>
@@ -9097,15 +9081,15 @@
         <v>219</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="E13" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>304</v>
       </c>
     </row>
@@ -9114,12 +9098,12 @@
         <v>222</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="D14" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>305</v>
       </c>
     </row>
@@ -9128,9 +9112,9 @@
         <v>225</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="C15" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>306</v>
       </c>
     </row>
@@ -9139,22 +9123,22 @@
         <v>228</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="E16" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>307</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9162,30 +9146,30 @@
         <v>231</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="J17" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="J17" s="10" t="s">
         <v>308</v>
       </c>
     </row>
@@ -9202,9 +9186,9 @@
         <v>237</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="C19" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>310</v>
       </c>
     </row>
@@ -9213,40 +9197,40 @@
         <v>239</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="G20" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>311</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9254,12 +9238,12 @@
         <v>242</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="D21" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>312</v>
       </c>
     </row>
@@ -9267,13 +9251,13 @@
       <c r="A22" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="B22" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>313</v>
       </c>
     </row>
@@ -9281,10 +9265,10 @@
       <c r="A23" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="B23" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>314</v>
       </c>
     </row>
@@ -9293,9 +9277,9 @@
         <v>251</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="C24" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>315</v>
       </c>
     </row>
@@ -9304,9 +9288,9 @@
         <v>254</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="C25" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>316</v>
       </c>
     </row>
@@ -9314,7 +9298,7 @@
       <c r="A26" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="10" t="s">
         <v>317</v>
       </c>
     </row>
@@ -9322,7 +9306,7 @@
       <c r="A27" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="10" t="s">
         <v>318</v>
       </c>
     </row>
@@ -9352,27 +9336,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
